--- a/test.xlsx
+++ b/test.xlsx
@@ -8,27 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdaneri/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC18B9D-4371-0F44-8502-5E4F89C2EBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D20F373-A749-B042-A65A-DA3DFC689796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45800" yWindow="-400" windowWidth="50300" windowHeight="20120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="106720" yWindow="2820" windowWidth="50300" windowHeight="20120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
     <sheet name="Credentials" sheetId="2" r:id="rId2"/>
     <sheet name="Hosts and Networks" sheetId="3" r:id="rId3"/>
     <sheet name="Deploy Parameters" sheetId="4" r:id="rId4"/>
-    <sheet name="Lookup_Lists" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="Config_File_Build" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="Change Log" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="Virtual Deployment" sheetId="8" r:id="rId5"/>
+    <sheet name="Lookup_Lists" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Config_File_Build" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Change Log" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Config_File_Build!$A$80:$B$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Config_File_Build!$A$80:$B$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Deploy Parameters'!$E$11:$G$16</definedName>
     <definedName name="Authentication" localSheetId="0">#REF!</definedName>
+    <definedName name="cluster_image_path" localSheetId="4">'[2]Deploy Parameters'!#REF!</definedName>
     <definedName name="cluster_image_path">'Deploy Parameters'!#REF!</definedName>
+    <definedName name="cluster_image_version" localSheetId="4">'[2]Deploy Parameters'!#REF!</definedName>
     <definedName name="cluster_image_version">'Deploy Parameters'!#REF!</definedName>
     <definedName name="Configuration_Mode" localSheetId="0">#REF!</definedName>
     <definedName name="Database_Type" localSheetId="0">#REF!</definedName>
@@ -48,6 +52,7 @@
     <definedName name="esx_host4_ip">'Hosts and Networks'!$L$7</definedName>
     <definedName name="esx_host4_name">'Hosts and Networks'!$L$6</definedName>
     <definedName name="esx_host4_ssh">'Hosts and Networks'!$J$18</definedName>
+    <definedName name="esx_license_std" localSheetId="4">'[2]Deploy Parameters'!$F$12</definedName>
     <definedName name="esx_license_std">'Deploy Parameters'!$F$12</definedName>
     <definedName name="esx_root_password">Credentials!$C$8</definedName>
     <definedName name="esxi_host4_ssl">'Hosts and Networks'!$L$18</definedName>
@@ -60,10 +65,15 @@
     <definedName name="host_overlay_ip_start">'Hosts and Networks'!$J$28</definedName>
     <definedName name="host_overlay_poolname">'Hosts and Networks'!$J$26</definedName>
     <definedName name="host_overlay_vlan">'Hosts and Networks'!$J$22</definedName>
+    <definedName name="mgmt_cidr" localSheetId="4">'[2]Hosts and Networks'!#REF!</definedName>
     <definedName name="mgmt_cidr">'Hosts and Networks'!#REF!</definedName>
+    <definedName name="mgmt_gw" localSheetId="4">'[2]Hosts and Networks'!#REF!</definedName>
     <definedName name="mgmt_gw">'Hosts and Networks'!#REF!</definedName>
+    <definedName name="mgmt_mtu" localSheetId="4">'[2]Hosts and Networks'!#REF!</definedName>
     <definedName name="mgmt_mtu">'Hosts and Networks'!#REF!</definedName>
+    <definedName name="mgmt_portgroup" localSheetId="4">'[2]Hosts and Networks'!#REF!</definedName>
     <definedName name="mgmt_portgroup">'Hosts and Networks'!#REF!</definedName>
+    <definedName name="mgmt_vlan" localSheetId="4">'[2]Hosts and Networks'!#REF!</definedName>
     <definedName name="mgmt_vlan">'Hosts and Networks'!#REF!</definedName>
     <definedName name="nsx_root_password">Credentials!$C$13</definedName>
     <definedName name="nsxt_admin_password">Credentials!$C$14</definedName>
@@ -79,14 +89,19 @@
     <definedName name="vc_license">'Deploy Parameters'!$F$14</definedName>
     <definedName name="vcenter_root_password">Credentials!$C$11</definedName>
     <definedName name="vcf_admin_password">Credentials!$C$19</definedName>
+    <definedName name="vcf_license" localSheetId="4">'[2]Deploy Parameters'!#REF!</definedName>
     <definedName name="vcf_license">'Deploy Parameters'!#REF!</definedName>
     <definedName name="vcf_root_password">Credentials!$C$17</definedName>
     <definedName name="vcf_user_password">Credentials!$C$18</definedName>
     <definedName name="vds_primary_mtu">'Hosts and Networks'!$E$15</definedName>
+    <definedName name="vds_primary_name" localSheetId="4">'[2]Hosts and Networks'!$E$13</definedName>
     <definedName name="vds_primary_name">'Hosts and Networks'!$E$13</definedName>
+    <definedName name="vds_primary_vmnics" localSheetId="4">'[2]Hosts and Networks'!$E$14</definedName>
     <definedName name="vds_primary_vmnics">'Hosts and Networks'!$E$14</definedName>
     <definedName name="vds_secondary_mtu">'Hosts and Networks'!$E$21</definedName>
+    <definedName name="vds_secondary_name" localSheetId="4">'[2]Hosts and Networks'!$E$18</definedName>
     <definedName name="vds_secondary_name">'Hosts and Networks'!$E$18</definedName>
+    <definedName name="vds_secondary_vmnics" localSheetId="4">'[2]Hosts and Networks'!$E$20</definedName>
     <definedName name="vds_secondary_vmnics">'Hosts and Networks'!$E$20</definedName>
     <definedName name="vmotion_cidr">'Hosts and Networks'!$E$8</definedName>
     <definedName name="vmotion_gw">'Hosts and Networks'!$F$8</definedName>
@@ -104,6 +119,7 @@
     <definedName name="vsan_mtu">'Hosts and Networks'!$G$8</definedName>
     <definedName name="vsan_portgroup">'Hosts and Networks'!$D$9</definedName>
     <definedName name="vsan_vlan">'Hosts and Networks'!$C$9</definedName>
+    <definedName name="vvs_name" localSheetId="4">'[2]Hosts and Networks'!#REF!</definedName>
     <definedName name="vvs_name">'Hosts and Networks'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -126,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="545">
   <si>
     <t>About</t>
   </si>
@@ -190,6 +206,7 @@
         <b/>
         <sz val="10.5"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t>Instructions:</t>
     </r>
@@ -197,6 +214,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Use the </t>
     </r>
@@ -205,6 +223,7 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t>Hosts and Networks</t>
     </r>
@@ -212,6 +231,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> tab to input network details, hostname and IPs for the ESXi hosts to be used to implement the Management Domain.
 - Grey cells are for information purposes and cannot be modified.
@@ -223,6 +243,7 @@
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Red cells mean the input data is either missing and mandatory or some type of validation of the input data has failed.
 </t>
@@ -231,6 +252,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t>- Yellow cells indicate input data, default values are included to help illustrate the formatting to be used and align to the VMware documentation</t>
     </r>
@@ -239,6 +261,7 @@
         <b/>
         <sz val="10.5"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t>.</t>
     </r>
@@ -246,6 +269,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -255,6 +279,7 @@
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t>If a value is not required enter 'n/a', if it turns red then its mandatory.</t>
     </r>
@@ -1672,6 +1697,7 @@
         <sz val="9"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 prefix with '</t>
@@ -1718,6 +1744,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Use the </t>
     </r>
@@ -1726,6 +1753,7 @@
         <i/>
         <sz val="10"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t>Deployment Parameters</t>
     </r>
@@ -1733,6 +1761,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> tab to input configuration details for physical infrastructure and the components used to implement the Management Domain.
 - Grey cells are for information purposes and cannot be modified.
@@ -1744,6 +1773,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Red cells mean the input data is either missing and mandatory or some type of validation of the input data has failed.
 </t>
@@ -1752,6 +1782,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -1760,6 +1791,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Yellow cells indicate input data, default values are included to help illustrate the formatting to be used and align to the VMware documentation.                 </t>
     </r>
@@ -1768,6 +1800,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Metropolis"/>
+        <charset val="1"/>
       </rPr>
       <t>If a value is not required enter 'n/a', if it turns red then its mandatory.</t>
     </r>
@@ -2247,13 +2280,119 @@
   <si>
     <t>vcf42-esx01</t>
   </si>
+  <si>
+    <t>General Deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Datacenter</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Cluster01</t>
+  </si>
+  <si>
+    <t>Datastore</t>
+  </si>
+  <si>
+    <t>vSanDatastore</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>VCF</t>
+  </si>
+  <si>
+    <t>Cloud Builder</t>
+  </si>
+  <si>
+    <t>VM Properties</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Network Pool</t>
+  </si>
+  <si>
+    <t>Admin Password</t>
+  </si>
+  <si>
+    <t>Root Password</t>
+  </si>
+  <si>
+    <t>Virtual ESX</t>
+  </si>
+  <si>
+    <t>VM Spec</t>
+  </si>
+  <si>
+    <t>vCPU</t>
+  </si>
+  <si>
+    <t>vMem</t>
+  </si>
+  <si>
+    <t>Boot Disk</t>
+  </si>
+  <si>
+    <t>Network Pool 1</t>
+  </si>
+  <si>
+    <t>Trunk</t>
+  </si>
+  <si>
+    <t>VLAN 10</t>
+  </si>
+  <si>
+    <t>cloudbuilder</t>
+  </si>
+  <si>
+    <t>cloudbuilder.vcf.lab.local</t>
+  </si>
+  <si>
+    <t>192.168.1.195</t>
+  </si>
+  <si>
+    <t>Network Pool 2</t>
+  </si>
+  <si>
+    <t>Path to Cloud Builder ISO</t>
+  </si>
+  <si>
+    <t>Path to ESX OVF/OVA</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>./ova/Nested_ESXi8.0u3_Appliance_Template_v1.ova</t>
+  </si>
+  <si>
+    <t>./ova/VMware-Cloud-Builder-5.2.0.0-24108943_OVF10.ova</t>
+  </si>
+  <si>
+    <t>Syslog</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0&quot; GB&quot;"/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -2303,16 +2442,19 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFFFFFF"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2333,12 +2475,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2356,11 +2500,13 @@
     <font>
       <sz val="10.5"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -2373,23 +2519,27 @@
     <font>
       <sz val="10"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -2408,55 +2558,65 @@
       <b/>
       <sz val="12"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF4F81BD"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <i/>
       <sz val="10.5"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF9BBB59"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF9BBB59"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2484,28 +2644,33 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="10"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -2513,6 +2678,7 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -2546,16 +2712,19 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -2578,17 +2747,20 @@
     <font>
       <sz val="8"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Metropolis"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3305,7 +3477,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3674,6 +3846,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="9" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
     </xf>
@@ -3727,11 +3903,83 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="9" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="14" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="14" borderId="28" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="29" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -3743,28 +3991,6 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="29" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3784,67 +4010,101 @@
     <xf numFmtId="0" fontId="35" fillId="9" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="14" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="14" borderId="28" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="26" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="27" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="26" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="9" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="35" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="36" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="29" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="33" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="34" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="32" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="9" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="31" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -3853,89 +4113,20 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="26" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="27" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="9" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="9" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="26" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="35" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="36" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="29" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="33" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="34" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="32" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3950,7 +4141,75 @@
     <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="145">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF595959"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF303030"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF595959"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF303030"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3998,6 +4257,145 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF595959"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF303030"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF595959"/>
       </font>
       <fill>
@@ -4020,16 +4418,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF595959"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF303030"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF9C0006"/>
@@ -4037,6 +4425,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF595959"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF303030"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4528,6 +4926,18 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <color rgb="FF000000"/>
@@ -4535,18 +4945,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5036,7 +5434,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF9C0001"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -5048,7 +5446,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C0001"/>
       </font>
       <fill>
         <patternFill>
@@ -6162,6 +6560,174 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168807</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E0BE4C-B51A-3640-AFD5-A04F683E58B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9360"/>
+          <a:ext cx="13277160" cy="1430680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>149400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>733155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B6C39F5-0A61-2F4F-B329-FF2592EE7D85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10160000" y="149400"/>
+          <a:ext cx="1324525" cy="583755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>48847</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>78154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1738130</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>566642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFDBDDB4-33D0-D44C-932B-9C97DDE9BA12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="137747" y="78154"/>
+          <a:ext cx="5562783" cy="488488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="90000" tIns="45000" rIns="90000" bIns="45000">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Metropolis"/>
+            </a:rPr>
+            <a:t>Virtual Deployment Parameters</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2800" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -6281,6 +6847,72 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Introduction"/>
+      <sheetName val="Credentials"/>
+      <sheetName val="Hosts and Networks"/>
+      <sheetName val="Deploy Parameters"/>
+      <sheetName val="Virtual Deployment"/>
+      <sheetName val="Lookup_Lists"/>
+      <sheetName val="Config_File_Build"/>
+      <sheetName val="Change Log"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="13">
+          <cell r="E13" t="str">
+            <v>sfo-m01-cluster-001-vds-001</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14" t="str">
+            <v>vmnic0,vmnic1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18" t="str">
+            <v>n/a</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20" t="str">
+            <v>vmnic2,vmnic3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="12">
+          <cell r="F12" t="str">
+            <v>ZJ6LV-ZD2DM-P8RN0-LH1K4-2EV39</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="J21" t="str">
+            <v>Yes</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6659,11 +7291,11 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="2:15" s="3" customFormat="1" ht="47" customHeight="1">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="136" t="s">
         <v>468</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
         <v>413</v>
@@ -6683,127 +7315,127 @@
     </row>
     <row r="5" spans="2:15" s="2" customFormat="1" ht="13" thickBot="1"/>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="139"/>
     </row>
     <row r="7" spans="2:15" s="9" customFormat="1" ht="14" customHeight="1">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="140" t="s">
         <v>436</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="142"/>
     </row>
     <row r="8" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="142"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="144"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="145"/>
     </row>
     <row r="9" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="142"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="144"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145"/>
     </row>
     <row r="10" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="142"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="144"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="145"/>
     </row>
     <row r="11" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B11" s="142"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="144"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="145"/>
     </row>
     <row r="12" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="142"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="144"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="145"/>
     </row>
     <row r="13" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="142"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="144"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="145"/>
     </row>
     <row r="14" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B14" s="142"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="144"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="145"/>
     </row>
     <row r="15" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="142"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="145"/>
     </row>
     <row r="16" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B16" s="142"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="145"/>
     </row>
     <row r="17" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B17" s="142"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="144"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="145"/>
     </row>
     <row r="18" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B18" s="142"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="144"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="145"/>
     </row>
     <row r="19" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B19" s="142"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="145"/>
     </row>
     <row r="20" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B20" s="142"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="144"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="145"/>
     </row>
     <row r="21" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B21" s="142"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="144"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
     </row>
     <row r="22" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B22" s="145"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="147"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="148"/>
     </row>
     <row r="23" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="B23" s="130"/>
@@ -6814,64 +7446,64 @@
     </row>
     <row r="24" spans="2:6" s="2" customFormat="1" ht="13" thickBot="1"/>
     <row r="25" spans="2:6" s="2" customFormat="1" ht="12">
-      <c r="B25" s="148" t="s">
+      <c r="B25" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
     </row>
     <row r="26" spans="2:6" s="2" customFormat="1" ht="14" customHeight="1">
-      <c r="B26" s="149" t="s">
+      <c r="B26" s="150" t="s">
         <v>372</v>
       </c>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
     </row>
     <row r="27" spans="2:6" s="2" customFormat="1" ht="12">
-      <c r="B27" s="149"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
     </row>
     <row r="28" spans="2:6" s="2" customFormat="1" ht="12">
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
     </row>
     <row r="29" spans="2:6" s="2" customFormat="1" ht="12">
-      <c r="B29" s="149"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
     </row>
     <row r="30" spans="2:6" s="2" customFormat="1" ht="12">
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
     </row>
     <row r="31" spans="2:6" s="2" customFormat="1" ht="12">
-      <c r="B31" s="149"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
     </row>
     <row r="32" spans="2:6" s="2" customFormat="1" ht="12">
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="12"/>
     <row r="34" s="2" customFormat="1" ht="12"/>
@@ -7438,7 +8070,7 @@
     <sheetView showGridLines="0" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B141" sqref="B141"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7460,11 +8092,11 @@
     </row>
     <row r="2" spans="2:7" ht="2.25" customHeight="1"/>
     <row r="3" spans="2:7" s="13" customFormat="1" ht="69" customHeight="1">
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -7494,11 +8126,11 @@
       </c>
     </row>
     <row r="7" spans="2:7" s="17" customFormat="1" ht="16" customHeight="1">
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
     </row>
     <row r="8" spans="2:7" s="17" customFormat="1" ht="25" customHeight="1">
       <c r="B8" s="23" t="s">
@@ -7512,11 +8144,11 @@
       </c>
     </row>
     <row r="9" spans="2:7" s="17" customFormat="1" ht="16" customHeight="1">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
     </row>
     <row r="10" spans="2:7" s="17" customFormat="1" ht="25" customHeight="1">
       <c r="B10" s="23" t="s">
@@ -7541,11 +8173,11 @@
       </c>
     </row>
     <row r="12" spans="2:7" s="26" customFormat="1" ht="16" customHeight="1">
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="152" t="s">
         <v>361</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" spans="2:7" s="17" customFormat="1" ht="25" customHeight="1">
@@ -7582,11 +8214,11 @@
       </c>
     </row>
     <row r="16" spans="2:7" s="28" customFormat="1" ht="16" customHeight="1">
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" s="17" customFormat="1" ht="25" customHeight="1">
@@ -7864,69 +8496,69 @@
     <mergeCell ref="B16:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="125" priority="13">
+    <cfRule type="expression" dxfId="144" priority="13">
       <formula>LEN(C8)&gt;40</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="14">
+    <cfRule type="expression" dxfId="143" priority="14">
       <formula>LEN(C8)&lt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="123" priority="1">
+    <cfRule type="expression" dxfId="142" priority="1">
       <formula>LEN($C$10)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="expression" dxfId="122" priority="9">
+    <cfRule type="expression" dxfId="141" priority="9">
       <formula>AND(LEN(C10)&gt;0,LEN(C10)&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="121" priority="2">
+    <cfRule type="expression" dxfId="140" priority="2">
       <formula>LEN($C$11)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="120" priority="3">
+    <cfRule type="expression" dxfId="139" priority="3">
       <formula>LEN($C$13)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="119" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="10" stopIfTrue="1">
       <formula>AND(LEN(C13)&gt;0,LEN(C13)&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="118" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="4" stopIfTrue="1">
       <formula>LEN($C$14)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="117" priority="5">
+    <cfRule type="expression" dxfId="136" priority="5">
       <formula>LEN($C$15)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="15" stopIfTrue="1">
       <formula>AND(LEN(C15)&gt;0,LEN(C15)&lt;12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="115" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="6" stopIfTrue="1">
       <formula>LEN($C$17)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="12" stopIfTrue="1">
       <formula>AND(LEN(C17)&gt;0,LEN(C17)&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="113" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="7" stopIfTrue="1">
       <formula>LEN($C$18)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="17" stopIfTrue="1">
       <formula>AND(LEN(C18)&gt;0,LEN(C18)&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="111" priority="18">
+    <cfRule type="expression" dxfId="130" priority="18">
       <formula>LEN(C19)&lt;12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7961,7 +8593,7 @@
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B141" sqref="B141"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15"/>
@@ -7992,19 +8624,19 @@
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:29" s="38" customFormat="1" ht="60" customHeight="1">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
     </row>
     <row r="4" spans="1:29" s="17" customFormat="1" ht="4" customHeight="1">
       <c r="A4" s="41"/>
@@ -8038,21 +8670,21 @@
     </row>
     <row r="5" spans="1:29" s="44" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="A5" s="37"/>
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="43"/>
-      <c r="I5" s="160" t="s">
+      <c r="I5" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
       <c r="M5" s="37"/>
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
@@ -8350,15 +8982,15 @@
       <c r="AC11" s="37"/>
     </row>
     <row r="12" spans="1:29" s="37" customFormat="1" ht="16" customHeight="1">
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="171" t="s">
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="171"/>
+      <c r="F12" s="160"/>
       <c r="G12" s="35"/>
       <c r="I12" s="65" t="s">
         <v>35</v>
@@ -8376,142 +9008,142 @@
       <c r="P12" s="35"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="162" t="s">
         <v>459</v>
       </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="175" t="s">
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="163" t="s">
         <v>458</v>
       </c>
-      <c r="F13" s="175"/>
+      <c r="F13" s="163"/>
       <c r="G13" s="35"/>
       <c r="I13" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="182" t="s">
+      <c r="J13" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="182"/>
-      <c r="L13" s="183" t="s">
+      <c r="K13" s="157"/>
+      <c r="L13" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="183"/>
+      <c r="M13" s="158"/>
     </row>
     <row r="14" spans="1:29" ht="16" customHeight="1">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="175" t="s">
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="175"/>
+      <c r="F14" s="163"/>
       <c r="G14" s="35"/>
       <c r="I14" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="177" t="s">
+      <c r="J14" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="177"/>
-      <c r="L14" s="178" t="s">
+      <c r="K14" s="167"/>
+      <c r="L14" s="168" t="s">
         <v>374</v>
       </c>
-      <c r="M14" s="179"/>
+      <c r="M14" s="169"/>
     </row>
     <row r="15" spans="1:29" ht="16" customHeight="1">
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159">
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="164">
         <v>9000</v>
       </c>
-      <c r="F15" s="176"/>
+      <c r="F15" s="165"/>
       <c r="G15" s="35"/>
       <c r="I15" s="68" t="str">
         <f>IF(AND(I6&lt;&gt;"n/a",I6&lt;&gt;""),I6,I7)</f>
         <v>vcf42-esx01</v>
       </c>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
     </row>
     <row r="16" spans="1:29" ht="16" customHeight="1">
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="173" t="s">
         <v>408</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="172" t="s">
+      <c r="C16" s="174"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="171" t="s">
         <v>409</v>
       </c>
-      <c r="F16" s="173"/>
+      <c r="F16" s="172"/>
       <c r="G16" s="35"/>
       <c r="I16" s="68" t="str">
         <f>IF(AND(J6&lt;&gt;"n/a",J6&lt;&gt;""),J6,J7)</f>
         <v>vcf42-esx02</v>
       </c>
-      <c r="J16" s="174"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
     </row>
     <row r="17" spans="2:13" ht="16" customHeight="1">
-      <c r="B17" s="170" t="s">
+      <c r="B17" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="171" t="s">
+      <c r="C17" s="159"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="171"/>
+      <c r="F17" s="160"/>
       <c r="G17" s="35"/>
       <c r="I17" s="68" t="str">
         <f>IF(AND(K6&lt;&gt;"n/a",K6&lt;&gt;""),K6,K7)</f>
         <v>vcf42-esx03</v>
       </c>
-      <c r="J17" s="174"/>
-      <c r="K17" s="174"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
     </row>
     <row r="18" spans="2:13" ht="16" customHeight="1">
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="162" t="s">
         <v>430</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="159" t="s">
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="159"/>
+      <c r="F18" s="164"/>
       <c r="G18" s="35"/>
       <c r="H18" s="69"/>
       <c r="I18" s="70" t="str">
         <f>IF(AND(L6&lt;&gt;"n/a",L6&lt;&gt;""),L6,L7)</f>
         <v>vcf42-esx04</v>
       </c>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
     </row>
     <row r="19" spans="2:13" ht="16" customHeight="1">
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="173" t="s">
         <v>410</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="164" t="s">
+      <c r="C19" s="174"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="165"/>
+      <c r="F19" s="180"/>
       <c r="G19" s="35"/>
       <c r="H19" s="69"/>
       <c r="I19" s="35"/>
@@ -8520,34 +9152,34 @@
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="2:13" ht="16" customHeight="1">
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="159" t="s">
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="159"/>
+      <c r="F20" s="164"/>
       <c r="G20" s="35"/>
-      <c r="I20" s="160" t="str">
+      <c r="I20" s="156" t="str">
         <f>IF(K24="No","NSX Host Overlay Network - DHCP","NSX Host Overlay Network - Static IP Pool in NSX")</f>
         <v>NSX Host Overlay Network - Static IP Pool in NSX</v>
       </c>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="156"/>
     </row>
     <row r="21" spans="2:13" s="35" customFormat="1" ht="16" customHeight="1">
-      <c r="B21" s="166" t="s">
+      <c r="B21" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="167">
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="182">
         <v>9000</v>
       </c>
-      <c r="F21" s="167"/>
+      <c r="F21" s="182"/>
     </row>
     <row r="22" spans="2:13" s="35" customFormat="1" ht="16" customHeight="1">
       <c r="I22" s="71" t="s">
@@ -8563,64 +9195,64 @@
       </c>
       <c r="C23" s="74"/>
       <c r="D23" s="74"/>
-      <c r="E23" s="169" t="s">
+      <c r="E23" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="169"/>
+      <c r="F23" s="184"/>
     </row>
     <row r="24" spans="2:13" s="35" customFormat="1" ht="12">
-      <c r="B24" s="156" t="str">
+      <c r="B24" s="178" t="str">
         <f>IF(E23="Profile-1",Lookup_Lists!C2,IF(E23="Profile-2",IF(OR(E16="Overlay/VLAN",E16="Overlay"),Lookup_Lists!C3,Lookup_Lists!C4),IF(E23="Profile-3",Lookup_Lists!C5,)))</f>
         <v>vSphere Distributed Switch = One (1)          /          Physical NICs = Two (2) or  Four (4)
 Primary vDS - sfo-m01-cluster-001-vds-001
      -  Traffic for Management, vMotion, vSAN, Host Overlay - e.g. vmnic0,vmnic1</v>
       </c>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="I24" s="168" t="s">
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="I24" s="183" t="s">
         <v>362</v>
       </c>
-      <c r="J24" s="168"/>
+      <c r="J24" s="183"/>
       <c r="K24" s="73" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:13" s="35" customFormat="1" ht="16" customHeight="1">
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
       <c r="I25" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="157" t="s">
+      <c r="J25" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="157"/>
+      <c r="K25" s="170"/>
     </row>
     <row r="26" spans="2:13" s="35" customFormat="1" ht="12">
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
       <c r="I26" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="157" t="s">
+      <c r="J26" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="K26" s="157"/>
+      <c r="K26" s="170"/>
     </row>
     <row r="27" spans="2:13" s="35" customFormat="1" ht="12">
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
       <c r="I27" s="76" t="s">
         <v>24</v>
       </c>
@@ -8635,11 +9267,11 @@
       </c>
     </row>
     <row r="28" spans="2:13" s="35" customFormat="1" ht="13" thickBot="1">
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
       <c r="I28" s="80" t="s">
         <v>363</v>
       </c>
@@ -8654,18 +9286,18 @@
       </c>
     </row>
     <row r="29" spans="2:13" s="35" customFormat="1" ht="12">
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
     </row>
     <row r="30" spans="2:13" s="35" customFormat="1" ht="12">
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
       <c r="I30" s="84"/>
     </row>
     <row r="31" spans="2:13" s="35" customFormat="1" ht="12">
@@ -8844,31 +9476,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="41">
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="L18:M18"/>
@@ -8885,210 +9492,235 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <conditionalFormatting sqref="B17:F21">
-    <cfRule type="expression" dxfId="110" priority="113">
+    <cfRule type="expression" dxfId="129" priority="113">
       <formula>$E$23="Profile-1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:D8">
-    <cfRule type="expression" dxfId="109" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="16" stopIfTrue="1">
       <formula>IF($E$23="Profile-3",AND(OR($B$16="Overlay/VLAN",$B$16="Overlay")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E10">
-    <cfRule type="notContainsText" dxfId="108" priority="51" operator="notContains" text="/">
+    <cfRule type="notContainsText" dxfId="127" priority="51" operator="notContains" text="/">
       <formula>ISERROR(SEARCH("/",E8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="107" priority="23">
+    <cfRule type="expression" dxfId="126" priority="23">
       <formula>IF($E$22="Profile-1",AND($E$15="VLAN"))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="106" priority="28">
-      <formula>LEN(TRIM(E16))=0</formula>
+    <cfRule type="expression" dxfId="125" priority="24">
+      <formula>IF($E$22&lt;&gt;"Profile-1",AND($E$18="VLAN",$E$15="VLAN"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="27">
+    <cfRule type="expression" dxfId="124" priority="25">
+      <formula>IF($E$22="Profile-1",AND($E$15="n/a"))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="26">
+      <formula>IF(AND(OR($E$15="Overlay/VLAN",$E$15="Overlay")),(OR($E$18="Overlay/VLAN",$E$18="Overlay")))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="27">
       <formula>IF($E$22="Profile-3",AND(OR($E$15="Overlay/VLAN",$E$15="Overlay")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="26">
-      <formula>IF(AND(OR($E$15="Overlay/VLAN",$E$15="Overlay")),(OR($E$18="Overlay/VLAN",$E$18="Overlay")))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="25">
-      <formula>IF($E$22="Profile-1",AND($E$15="n/a"))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="24">
-      <formula>IF($E$22&lt;&gt;"Profile-1",AND($E$18="VLAN",$E$15="VLAN"))</formula>
+    <cfRule type="containsBlanks" dxfId="121" priority="28">
+      <formula>LEN(TRIM(E16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="101" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="33" stopIfTrue="1">
       <formula>IF(AND(OR($E$16="Overlay/VLAN",$E$16="Overlay")),(OR($E$19="Overlay/VLAN",$E$19="Overlay")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F9">
-    <cfRule type="expression" dxfId="100" priority="13">
+    <cfRule type="expression" dxfId="119" priority="13">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F15">
-    <cfRule type="expression" dxfId="99" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="6">
+      <formula>LEN(TRIM(E13))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="90" stopIfTrue="1">
       <formula>AND(E13&lt;&gt;"n/a",IF(E13=E18, TRUE, FALSE))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="6">
-      <formula>LEN(TRIM(E13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="expression" dxfId="97" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="146" stopIfTrue="1">
       <formula>LEN(TRIM(E18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:F19">
-    <cfRule type="containsBlanks" dxfId="96" priority="152" stopIfTrue="1">
-      <formula>LEN(TRIM(E19))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="29">
+    <cfRule type="expression" dxfId="115" priority="29">
       <formula>IF($E$23&lt;&gt;"Profile-1",AND($E$19="VLAN",$E$16="VLAN"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="32">
+    <cfRule type="expression" dxfId="114" priority="32">
       <formula>IF($E$23&lt;&gt;"Profile-1",AND($E$19="VLAN",$E$16="VLAN"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="35" stopIfTrue="1">
       <formula>IF($E$23="Profile-3",AND($E$18="n/a"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="36">
+    <cfRule type="expression" dxfId="112" priority="36">
       <formula>IF($E$23="Profile-2",AND($E$19="n/a"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="37">
+    <cfRule type="expression" dxfId="111" priority="37">
       <formula>IF($E$23="Profile-1",AND($E$19&lt;&gt;"n/a"))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="110" priority="152" stopIfTrue="1">
+      <formula>LEN(TRIM(E19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
-    <cfRule type="expression" dxfId="90" priority="95">
+    <cfRule type="expression" dxfId="109" priority="95">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F23">
-    <cfRule type="expression" dxfId="89" priority="104">
-      <formula>IF($E$23="Profile-1",AND($E$18&lt;&gt;"n/a"))</formula>
+    <cfRule type="expression" dxfId="108" priority="102">
+      <formula>IF($E$23="Profile-3",AND($E$18="n/a"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="103">
+    <cfRule type="expression" dxfId="107" priority="103">
       <formula>IF($E$23="Profile-2",AND($E$18="n/a"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="102">
-      <formula>IF($E$23="Profile-3",AND($E$18="n/a"))</formula>
+    <cfRule type="expression" dxfId="106" priority="104">
+      <formula>IF($E$23="Profile-1",AND($E$18&lt;&gt;"n/a"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:G8">
-    <cfRule type="containsText" dxfId="86" priority="14" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="105" priority="14" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="85" priority="98">
+    <cfRule type="expression" dxfId="104" priority="98">
       <formula>#REF!="TRUE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F10">
-    <cfRule type="expression" dxfId="84" priority="21">
+    <cfRule type="containsText" dxfId="103" priority="20" operator="containsText" text="n/a">
+      <formula>NOT(ISERROR(SEARCH("n/a",F7)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="21">
       <formula>IF(LEN(F7)-LEN(SUBSTITUTE(F7,".",""))=3,0,1)</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="20" operator="containsText" text="n/a">
-      <formula>NOT(ISERROR(SEARCH("n/a",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G10">
-    <cfRule type="expression" dxfId="82" priority="19">
+    <cfRule type="expression" dxfId="101" priority="19">
       <formula>LEN(TRIM(F7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G10">
-    <cfRule type="cellIs" dxfId="81" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="22" operator="lessThan">
       <formula>1500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="80" priority="88">
+    <cfRule type="expression" dxfId="99" priority="88">
       <formula>IF(ISNUMBER(FIND(".",G22)),IF((FIND(".",G22)-1)&gt;15,0,0),IF((LEN(G22))&gt;15,0,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I7">
-    <cfRule type="expression" dxfId="79" priority="2">
+    <cfRule type="expression" dxfId="98" priority="2">
       <formula>AND($I$6="n/a",$I$7="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="78" priority="9">
+    <cfRule type="expression" dxfId="97" priority="9">
       <formula>AND(I7&lt;&gt;"n/a",COUNTIF($I$7:$L$7,I7)&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="65" stopIfTrue="1">
       <formula>AND(I6="n/a",IF(LEN(I7)-LEN(SUBSTITUTE(I7,".",""))=3,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:K26 I27:L28">
-    <cfRule type="expression" dxfId="76" priority="107">
+    <cfRule type="expression" dxfId="95" priority="107">
       <formula>$K$24="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:L6">
-    <cfRule type="expression" dxfId="75" priority="60">
+    <cfRule type="expression" dxfId="94" priority="10" stopIfTrue="1">
+      <formula>IF(I6&lt;&gt;"n/a",COUNTIF($I$6:$P$6,I6)&gt;1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="60">
       <formula>AND(I7="n/a",I6="n/a")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="10" stopIfTrue="1">
-      <formula>IF(I6&lt;&gt;"n/a",COUNTIF($I$6:$P$6,I6)&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:M18">
-    <cfRule type="expression" dxfId="73" priority="87">
+    <cfRule type="expression" dxfId="92" priority="87">
       <formula>$K$12="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J7">
-    <cfRule type="expression" dxfId="72" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="3" stopIfTrue="1">
       <formula>AND($J$6="n/a",$J$7="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="71" priority="67">
+    <cfRule type="expression" dxfId="90" priority="64">
+      <formula>AND(J7&lt;&gt;"n/a",COUNTIF(I7:P7,J7)&gt;1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="67">
       <formula>AND(J6="n/a",J7&lt;&gt;"n/a",IF(LEN(J7)-LEN(SUBSTITUTE(J7,".",""))=3,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="64">
-      <formula>AND(J7&lt;&gt;"n/a",COUNTIF(I7:P7,J7)&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9 L8:L9 J14:M18">
-    <cfRule type="expression" dxfId="69" priority="57">
+    <cfRule type="expression" dxfId="88" priority="57">
       <formula>LEN(TRIM(J8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9">
-    <cfRule type="containsText" dxfId="68" priority="75" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="87" priority="75" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7">
-    <cfRule type="expression" dxfId="67" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="4" stopIfTrue="1">
       <formula>AND($K$6="n/a",$K$7="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="66" priority="7">
+    <cfRule type="expression" dxfId="85" priority="7">
       <formula>AND(K7&lt;&gt;"n/a",COUNTIF($I$7:$L$7,K7)&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="expression" dxfId="65" priority="69">
+    <cfRule type="expression" dxfId="84" priority="69">
       <formula>AND(K6="n/a",IF(LEN(K7)-LEN(SUBSTITUTE(K7,".",""))=3,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L7">
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="83" priority="5">
       <formula>AND($L$6="n/a",$L$7="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L9">
-    <cfRule type="containsText" dxfId="63" priority="79" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="82" priority="79" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",L8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9147,7 +9779,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B141" sqref="B141"/>
       <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
@@ -9181,18 +9813,18 @@
       <c r="C2" s="87"/>
     </row>
     <row r="3" spans="2:11" ht="60" customHeight="1">
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="206" t="s">
         <v>432</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
     </row>
     <row r="4" spans="2:11" s="17" customFormat="1" ht="2.25" customHeight="1">
       <c r="B4" s="88"/>
@@ -9208,18 +9840,18 @@
       <c r="E5" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="186" t="s">
+      <c r="F5" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="186"/>
+      <c r="G5" s="192"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="195" t="s">
+      <c r="J5" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="195"/>
+      <c r="K5" s="207"/>
     </row>
     <row r="6" spans="2:11" s="17" customFormat="1" ht="12">
       <c r="B6" s="95" t="str">
@@ -9232,18 +9864,18 @@
       <c r="E6" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="196" t="s">
+      <c r="F6" s="204" t="s">
         <v>499</v>
       </c>
-      <c r="G6" s="196"/>
+      <c r="G6" s="204"/>
       <c r="H6" s="97"/>
       <c r="I6" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="197" t="s">
+      <c r="J6" s="186" t="s">
         <v>488</v>
       </c>
-      <c r="K6" s="197"/>
+      <c r="K6" s="186"/>
     </row>
     <row r="7" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B7" s="95" t="str">
@@ -9256,25 +9888,25 @@
       <c r="E7" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="196" t="s">
+      <c r="F7" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="196"/>
+      <c r="G7" s="204"/>
       <c r="H7" s="88"/>
     </row>
     <row r="8" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E8" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="196" t="s">
+      <c r="F8" s="204" t="s">
         <v>491</v>
       </c>
-      <c r="G8" s="196"/>
+      <c r="G8" s="204"/>
       <c r="H8" s="88"/>
-      <c r="I8" s="198" t="s">
+      <c r="I8" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="198"/>
+      <c r="J8" s="205"/>
       <c r="K8" s="98" t="s">
         <v>53</v>
       </c>
@@ -9283,15 +9915,15 @@
       <c r="E9" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="196" t="s">
+      <c r="F9" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="196"/>
+      <c r="G9" s="204"/>
       <c r="H9" s="88"/>
-      <c r="I9" s="198" t="s">
+      <c r="I9" s="205" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="198"/>
+      <c r="J9" s="205"/>
       <c r="K9" s="98" t="s">
         <v>53</v>
       </c>
@@ -9307,17 +9939,17 @@
       <c r="E11" s="118" t="s">
         <v>465</v>
       </c>
-      <c r="F11" s="190" t="s">
+      <c r="F11" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="191"/>
+      <c r="G11" s="188"/>
       <c r="H11" s="88"/>
-      <c r="I11" s="193" t="str">
+      <c r="I11" s="209" t="str">
         <f>IF(F11="Yes","","If you select No for License Now, Cloud Builder deploys the VCF components in evaluation mode. After bring-up, you must switch to licensed mode by adding license keys in the SDDC Manager UI (component license keys) or vSphere Client (solution license key)")</f>
         <v>If you select No for License Now, Cloud Builder deploys the VCF components in evaluation mode. After bring-up, you must switch to licensed mode by adding license keys in the SDDC Manager UI (component license keys) or vSphere Client (solution license key)</v>
       </c>
-      <c r="J11" s="193"/>
-      <c r="K11" s="193"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="209"/>
     </row>
     <row r="12" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B12" s="100" t="str">
@@ -9330,49 +9962,49 @@
       <c r="E12" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="189" t="s">
+      <c r="F12" s="208" t="s">
         <v>508</v>
       </c>
-      <c r="G12" s="189"/>
+      <c r="G12" s="208"/>
       <c r="H12" s="88"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="193"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="209"/>
+      <c r="K12" s="209"/>
     </row>
     <row r="13" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E13" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="189" t="s">
+      <c r="F13" s="208" t="s">
         <v>505</v>
       </c>
-      <c r="G13" s="189"/>
+      <c r="G13" s="208"/>
       <c r="H13" s="88"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="209"/>
     </row>
     <row r="14" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E14" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="189" t="s">
+      <c r="F14" s="208" t="s">
         <v>507</v>
       </c>
-      <c r="G14" s="189"/>
+      <c r="G14" s="208"/>
       <c r="H14" s="88"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
+      <c r="I14" s="209"/>
+      <c r="J14" s="209"/>
+      <c r="K14" s="209"/>
     </row>
     <row r="15" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E15" s="96" t="s">
         <v>361</v>
       </c>
-      <c r="F15" s="189" t="s">
+      <c r="F15" s="208" t="s">
         <v>506</v>
       </c>
-      <c r="G15" s="189"/>
+      <c r="G15" s="208"/>
       <c r="H15" s="88"/>
     </row>
     <row r="16" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
@@ -9408,10 +10040,10 @@
       <c r="I18" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="186" t="s">
+      <c r="J18" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="186"/>
+      <c r="K18" s="192"/>
     </row>
     <row r="19" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B19" s="95" t="str">
@@ -9431,10 +10063,10 @@
       <c r="I19" s="96" t="s">
         <v>441</v>
       </c>
-      <c r="J19" s="185" t="s">
+      <c r="J19" s="193" t="s">
         <v>457</v>
       </c>
-      <c r="K19" s="185"/>
+      <c r="K19" s="193"/>
       <c r="M19" s="120" t="s">
         <v>403</v>
       </c>
@@ -9457,10 +10089,10 @@
       <c r="I20" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="192" t="s">
+      <c r="J20" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="192"/>
+      <c r="K20" s="185"/>
       <c r="M20" s="120" t="s">
         <v>402</v>
       </c>
@@ -9477,10 +10109,10 @@
       <c r="I21" s="96" t="s">
         <v>385</v>
       </c>
-      <c r="J21" s="192" t="s">
+      <c r="J21" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="192"/>
+      <c r="K21" s="185"/>
       <c r="M21" s="120"/>
     </row>
     <row r="22" spans="2:26" s="17" customFormat="1" ht="12">
@@ -9494,18 +10126,18 @@
       <c r="E22" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="186" t="s">
+      <c r="F22" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="186"/>
+      <c r="G22" s="192"/>
       <c r="H22" s="88"/>
       <c r="I22" s="96" t="s">
         <v>388</v>
       </c>
-      <c r="J22" s="197" t="s">
+      <c r="J22" s="186" t="s">
         <v>498</v>
       </c>
-      <c r="K22" s="197"/>
+      <c r="K22" s="186"/>
     </row>
     <row r="23" spans="2:26" s="17" customFormat="1" ht="13" customHeight="1">
       <c r="B23" s="104" t="str">
@@ -9518,17 +10150,17 @@
       <c r="E23" s="96" t="s">
         <v>444</v>
       </c>
-      <c r="F23" s="185" t="s">
+      <c r="F23" s="193" t="s">
         <v>443</v>
       </c>
-      <c r="G23" s="185"/>
+      <c r="G23" s="193"/>
       <c r="H23" s="88"/>
-      <c r="I23" s="199" t="str">
+      <c r="I23" s="191" t="str">
         <f>IF(F25="No","You have disabled vLCM Cluster Image, as a result vSAN-ESA cannot be enabled and the value set in the Enable vSAN-ESA field will be ignored.",IF(AND(OR(J22="n/a",J22=""),J21="Yes"), M19&amp;M20,""))</f>
         <v/>
       </c>
-      <c r="J23" s="199"/>
-      <c r="K23" s="199"/>
+      <c r="J23" s="191"/>
+      <c r="K23" s="191"/>
     </row>
     <row r="24" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B24" s="104" t="str">
@@ -9541,14 +10173,14 @@
       <c r="E24" s="96" t="s">
         <v>442</v>
       </c>
-      <c r="F24" s="185" t="s">
+      <c r="F24" s="193" t="s">
         <v>450</v>
       </c>
-      <c r="G24" s="185"/>
+      <c r="G24" s="193"/>
       <c r="H24" s="88"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="199"/>
-      <c r="K24" s="199"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="191"/>
+      <c r="K24" s="191"/>
       <c r="L24" s="88"/>
       <c r="M24" s="88"/>
       <c r="N24" s="88"/>
@@ -9569,14 +10201,14 @@
       <c r="E25" s="96" t="s">
         <v>376</v>
       </c>
-      <c r="F25" s="190" t="s">
+      <c r="F25" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="191"/>
+      <c r="G25" s="188"/>
       <c r="H25" s="88"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="199"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="191"/>
+      <c r="K25" s="191"/>
       <c r="L25" s="88"/>
       <c r="M25" s="88"/>
       <c r="N25" s="88"/>
@@ -9597,18 +10229,18 @@
       <c r="E26" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="202" t="s">
+      <c r="F26" s="194" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="202"/>
+      <c r="G26" s="194"/>
       <c r="H26" s="88"/>
       <c r="I26" s="101" t="s">
         <v>397</v>
       </c>
-      <c r="J26" s="190" t="s">
+      <c r="J26" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="191"/>
+      <c r="K26" s="188"/>
       <c r="L26" s="88"/>
       <c r="M26" s="88"/>
       <c r="N26" s="88"/>
@@ -9630,10 +10262,10 @@
       <c r="I27" s="96" t="s">
         <v>386</v>
       </c>
-      <c r="J27" s="200" t="s">
+      <c r="J27" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="201"/>
+      <c r="K27" s="190"/>
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
       <c r="N27" s="88"/>
@@ -9654,18 +10286,18 @@
       <c r="E28" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="197" t="s">
+      <c r="F28" s="186" t="s">
         <v>461</v>
       </c>
-      <c r="G28" s="197"/>
+      <c r="G28" s="186"/>
       <c r="H28" s="88"/>
       <c r="I28" s="96" t="s">
         <v>387</v>
       </c>
-      <c r="J28" s="200" t="s">
+      <c r="J28" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="201"/>
+      <c r="K28" s="190"/>
       <c r="L28" s="88"/>
       <c r="M28" s="88"/>
       <c r="N28" s="88"/>
@@ -9686,18 +10318,18 @@
       <c r="E29" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="186" t="s">
+      <c r="F29" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="186"/>
+      <c r="G29" s="192"/>
       <c r="H29" s="88"/>
       <c r="I29" s="96" t="s">
         <v>398</v>
       </c>
-      <c r="J29" s="200" t="s">
+      <c r="J29" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="201"/>
+      <c r="K29" s="190"/>
       <c r="L29" s="88"/>
       <c r="M29" s="88"/>
       <c r="N29" s="88"/>
@@ -9718,18 +10350,18 @@
       <c r="E30" s="96" t="s">
         <v>454</v>
       </c>
-      <c r="F30" s="185" t="s">
+      <c r="F30" s="193" t="s">
         <v>451</v>
       </c>
-      <c r="G30" s="185"/>
+      <c r="G30" s="193"/>
       <c r="H30" s="88"/>
       <c r="I30" s="96" t="s">
         <v>399</v>
       </c>
-      <c r="J30" s="200" t="s">
+      <c r="J30" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="201"/>
+      <c r="K30" s="190"/>
       <c r="L30" s="88"/>
       <c r="M30" s="88"/>
       <c r="N30" s="88"/>
@@ -9750,18 +10382,18 @@
       <c r="E31" s="96" t="s">
         <v>455</v>
       </c>
-      <c r="F31" s="185" t="s">
+      <c r="F31" s="193" t="s">
         <v>452</v>
       </c>
-      <c r="G31" s="185"/>
+      <c r="G31" s="193"/>
       <c r="H31" s="88"/>
       <c r="I31" s="96" t="s">
         <v>400</v>
       </c>
-      <c r="J31" s="190" t="s">
+      <c r="J31" s="187" t="s">
         <v>421</v>
       </c>
-      <c r="K31" s="191"/>
+      <c r="K31" s="188"/>
       <c r="L31" s="88"/>
       <c r="M31" s="88"/>
       <c r="N31" s="88"/>
@@ -9782,18 +10414,18 @@
       <c r="E32" s="96" t="s">
         <v>456</v>
       </c>
-      <c r="F32" s="185" t="s">
+      <c r="F32" s="193" t="s">
         <v>453</v>
       </c>
-      <c r="G32" s="185"/>
+      <c r="G32" s="193"/>
       <c r="H32" s="88"/>
-      <c r="I32" s="209" t="s">
+      <c r="I32" s="201" t="s">
         <v>420</v>
       </c>
-      <c r="J32" s="203" t="s">
+      <c r="J32" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="K32" s="204"/>
+      <c r="K32" s="196"/>
       <c r="L32" s="88"/>
       <c r="M32" s="88"/>
       <c r="N32" s="88"/>
@@ -9818,18 +10450,18 @@
       <c r="F33" s="131"/>
       <c r="G33" s="131"/>
       <c r="H33" s="105"/>
-      <c r="I33" s="210"/>
-      <c r="J33" s="205"/>
-      <c r="K33" s="206"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="198"/>
     </row>
     <row r="34" spans="2:21" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E34" s="131"/>
       <c r="F34" s="131"/>
       <c r="G34" s="131"/>
       <c r="H34" s="105"/>
-      <c r="I34" s="211"/>
-      <c r="J34" s="207"/>
-      <c r="K34" s="208"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="199"/>
+      <c r="K34" s="200"/>
       <c r="L34" s="129" t="str">
         <f>CLEAN(J32)</f>
         <v>n/a</v>
@@ -9846,12 +10478,12 @@
     </row>
     <row r="35" spans="2:21" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="H35" s="105"/>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="191" t="str">
         <f>IF(AND(J27="n/a",J28&lt;&gt;"n/a"),"Proxy port is specified, but proxy server is missing.",IF(AND(J27&lt;&gt;"n/a",J28="n/a"),"Proxy server is specified, but proxy port is missing.",IF(AND(OR(J27="n/a",J28="n/a"),OR(J29&lt;&gt;"n/a",J30&lt;&gt;"n/a",J26="Yes")),"Proxy server and port are mandatory.",IF(AND(J29&lt;&gt;"n/a",J30="n/a"),"Proxy username is specified, but proxy password is missing.",IF(AND(J29="n/a",J30&lt;&gt;"n/a"),"Proxy password is specified, but proxy username is missing.","")))))</f>
         <v/>
       </c>
-      <c r="J35" s="199"/>
-      <c r="K35" s="199"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="191"/>
       <c r="L35" s="88"/>
       <c r="M35" s="88"/>
       <c r="N35" s="88"/>
@@ -9865,8 +10497,8 @@
     </row>
     <row r="36" spans="2:21" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E36" s="134"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="212"/>
       <c r="H36" s="105"/>
       <c r="L36" s="88"/>
       <c r="M36" s="88"/>
@@ -10039,10 +10671,10 @@
       <c r="E44" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="186" t="s">
+      <c r="F44" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="186"/>
+      <c r="G44" s="192"/>
       <c r="H44" s="85"/>
       <c r="L44" s="88"/>
       <c r="M44" s="88"/>
@@ -10064,10 +10696,10 @@
       <c r="E45" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="184" t="s">
+      <c r="F45" s="210" t="s">
         <v>439</v>
       </c>
-      <c r="G45" s="184"/>
+      <c r="G45" s="210"/>
       <c r="H45" s="85"/>
       <c r="L45" s="88"/>
       <c r="M45" s="88"/>
@@ -10091,10 +10723,10 @@
       <c r="E46" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="187" t="s">
+      <c r="F46" s="211" t="s">
         <v>500</v>
       </c>
-      <c r="G46" s="187"/>
+      <c r="G46" s="211"/>
       <c r="L46" s="88"/>
       <c r="M46" s="88"/>
       <c r="N46" s="88"/>
@@ -10110,10 +10742,10 @@
       <c r="E47" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="184" t="s">
+      <c r="F47" s="210" t="s">
         <v>460</v>
       </c>
-      <c r="G47" s="184"/>
+      <c r="G47" s="210"/>
       <c r="L47" s="88"/>
       <c r="M47" s="88"/>
       <c r="N47" s="88"/>
@@ -10141,10 +10773,10 @@
       <c r="E49" s="91" t="s">
         <v>434</v>
       </c>
-      <c r="F49" s="185" t="s">
+      <c r="F49" s="193" t="s">
         <v>435</v>
       </c>
-      <c r="G49" s="185"/>
+      <c r="G49" s="193"/>
       <c r="L49" s="88"/>
       <c r="M49" s="88"/>
       <c r="N49" s="88"/>
@@ -10520,12 +11152,33 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="47">
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="I23:K25"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I11:K14"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J31:K31"/>
@@ -10540,295 +11193,274 @@
     <mergeCell ref="J32:K34"/>
     <mergeCell ref="I32:I34"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I11:K14"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="I23:K25"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B7 B18:B24 B37:B38 B45:B46 B50:B306">
-    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="55" operator="equal">
       <formula>"✓"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="61" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="111" operator="equal">
       <formula>"✓"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="60" priority="107">
+    <cfRule type="expression" dxfId="79" priority="107">
       <formula>#REF!="Standard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:G15">
-    <cfRule type="expression" dxfId="59" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="32" stopIfTrue="1">
       <formula>$F$11="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:G32">
-    <cfRule type="expression" dxfId="58" priority="106">
+    <cfRule type="expression" dxfId="77" priority="106">
       <formula>$F$28="Standard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="57" priority="73" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="76" priority="73" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="expression" dxfId="56" priority="60">
+    <cfRule type="expression" dxfId="75" priority="60">
       <formula>IF(LEN(F6)-LEN(SUBSTITUTE(F6,".",""))=3,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F9">
-    <cfRule type="expression" dxfId="55" priority="58">
+    <cfRule type="expression" dxfId="74" priority="58">
       <formula>LEN(TRIM(F6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="54" priority="59" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="73" priority="59" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="53" priority="71" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F15">
-    <cfRule type="expression" dxfId="52" priority="134">
+    <cfRule type="expression" dxfId="71" priority="108">
+      <formula>IF(#REF!="",0,1)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="70" priority="133" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="69" priority="134">
       <formula>LEN(TRIM(F12))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="108">
-      <formula>IF(#REF!="",0,1)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="50" priority="133" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="49" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="6" stopIfTrue="1">
+      <formula>$F$18="n/a"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="57" stopIfTrue="1">
       <formula>LEN(TRIM(F18))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="6" stopIfTrue="1">
-      <formula>$F$18="n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F24">
-    <cfRule type="expression" dxfId="47" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="62" stopIfTrue="1">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="expression" dxfId="46" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="5">
+      <formula>$F$38="n/a"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="18" stopIfTrue="1">
       <formula>AND($F$38&lt;&gt;"n/a",IF($F$38&lt;&gt;"n/a",COUNTIF($F$38:$F$41,$F$38)&gt;1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="5">
-      <formula>$F$38="n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="44" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="4">
+      <formula>$F$39="n/a"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="19" stopIfTrue="1">
       <formula>AND($F$39&lt;&gt;"n/a",IF($F$39&lt;&gt;"n/a",COUNTIF($F$38:$F$41,$F$39)&gt;1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="4">
-      <formula>$F$39="n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="expression" dxfId="42" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="3">
+      <formula>$F$40="n/a"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="20" stopIfTrue="1">
       <formula>AND($F$40&lt;&gt;"n/a",IF($F$40&lt;&gt;"n/a",COUNTIF($F$38:$F$41,$F$40)&gt;1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="3">
-      <formula>$F$40="n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="59" priority="2">
       <formula>$F$41="n/a"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="23">
+    <cfRule type="expression" dxfId="58" priority="23">
       <formula>AND($F$41&lt;&gt;"n/a",IF($F$41&lt;&gt;"n/a",COUNTIF($F$38:$F$41,$F$41)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>$F$45="n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:G18">
-    <cfRule type="expression" dxfId="37" priority="24">
+    <cfRule type="expression" dxfId="56" priority="24">
       <formula>AND($F$18="n/a",$G$18="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:G30">
-    <cfRule type="expression" dxfId="36" priority="80">
+    <cfRule type="expression" dxfId="55" priority="80">
       <formula>LEN(TRIM(F30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:G38">
-    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="10" stopIfTrue="1">
       <formula>AND($F$38="n/a",$G$38="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:G41">
-    <cfRule type="expression" dxfId="34" priority="64">
+    <cfRule type="expression" dxfId="53" priority="64">
       <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:G39">
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="52" priority="11">
       <formula>AND($F$39="n/a",$G$39="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:G40">
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="51" priority="12">
       <formula>AND($F$40="n/a",$G$40="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:G41">
-    <cfRule type="expression" dxfId="31" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="13" stopIfTrue="1">
       <formula>AND($F$41="n/a",$G$41="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:G46">
-    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
       <formula>AND($F$45="n/a",$F$46="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:G46">
-    <cfRule type="expression" dxfId="29" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="83" stopIfTrue="1">
       <formula>AND($F$46&lt;&gt;"n/a",IF(LEN(F46)-LEN(SUBSTITUTE(F46,".",""))=3,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="85" stopIfTrue="1">
       <formula>LEN(TRIM(F46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:G49">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="46" priority="8">
       <formula>LEN(TRIM(F49))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="68" stopIfTrue="1" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="45" priority="68" stopIfTrue="1" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="25" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="86" stopIfTrue="1">
       <formula>AND($G$18&lt;&gt;"n/a",IF(LEN(G18)-LEN(SUBSTITUTE(G18,".",""))=3,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="expression" dxfId="24" priority="14">
+    <cfRule type="expression" dxfId="43" priority="14">
       <formula>AND($G$38&lt;&gt;"n/a",IF($G$38&lt;&gt;"n/a",COUNTIF($G$38:$G$41,$G$38)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="23" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="15" stopIfTrue="1">
       <formula>AND($G$39&lt;&gt;"n/a",IF($G$39&lt;&gt;"n/a",COUNTIF($G$38:$G$41,$G$39)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="expression" dxfId="22" priority="16">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>AND($G$40&lt;&gt;"n/a",IF($G$40&lt;&gt;"n/a",COUNTIF($G$38:$G$41,$G$40)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="40" priority="17">
       <formula>AND($G$41&lt;&gt;"n/a",IF($G$41&lt;&gt;"n/a",COUNTIF($G$38:$G$41,$G$41)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="20" priority="42">
+    <cfRule type="expression" dxfId="39" priority="42">
       <formula>LEN(TRIM(J22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="expression" dxfId="19" priority="31">
+    <cfRule type="expression" dxfId="38" priority="31">
       <formula>AND($J$27="n/a",OR($J$28&lt;&gt;"n/a",$J$29&lt;&gt;"n/a",$J$30&lt;&gt;"n/a"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="18" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="33" stopIfTrue="1">
       <formula>AND($J$28="n/a",OR($J$27&lt;&gt;"n/a",$J$29&lt;&gt;"n/a",$J$30&lt;&gt;"n/a"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="17" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="35" stopIfTrue="1">
       <formula>AND(OR($J$29="n/a",$J$29=""),$J$30&lt;&gt;"n/a",$J$30&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="16" priority="34">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>AND($J$29&lt;&gt;"n/a",$J$29&lt;&gt;"",OR($J$30="n/a",$J$30=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="15" priority="27">
+    <cfRule type="expression" dxfId="34" priority="27">
       <formula>$J$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:K6">
-    <cfRule type="containsText" dxfId="14" priority="76" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="33" priority="76" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",J6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="77">
+    <cfRule type="expression" dxfId="32" priority="77">
       <formula>LEN(TRIM(J6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:K19">
-    <cfRule type="top10" dxfId="12" priority="78" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="78" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:K20">
-    <cfRule type="expression" dxfId="11" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="160" stopIfTrue="1">
       <formula>AND($F$25="Yes",$J$21="Yes")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:K22">
-    <cfRule type="expression" dxfId="10" priority="29">
+    <cfRule type="expression" dxfId="29" priority="29">
       <formula>$F$25="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="containsText" dxfId="9" priority="41" operator="containsText" text="n/a">
+    <cfRule type="expression" dxfId="28" priority="40" stopIfTrue="1">
+      <formula>$J$21="No"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="41" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",J22)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="40" stopIfTrue="1">
-      <formula>$J$21="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K28">
-    <cfRule type="expression" dxfId="7" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="37" stopIfTrue="1">
       <formula>AND($J$27="n/a",$J$28="n/a",$J$26="Yes")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K31">
-    <cfRule type="expression" dxfId="6" priority="53">
+    <cfRule type="expression" dxfId="25" priority="53">
       <formula>$J$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:K34">
-    <cfRule type="expression" dxfId="5" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
       <formula>$J$31="HTTP"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10921,6 +11553,478 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80883A0D-8449-414F-B4E6-B4F1B6AE4BAE}">
+  <dimension ref="A1:ALX50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" activeCellId="1" sqref="F25 E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.1640625" style="85" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="85" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="85" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" style="85" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" style="85" customWidth="1"/>
+    <col min="6" max="6" width="43.1640625" style="85" customWidth="1"/>
+    <col min="7" max="7" width="9" style="85"/>
+    <col min="8" max="8" width="24.83203125" style="85" customWidth="1"/>
+    <col min="9" max="9" width="77.5" style="85" customWidth="1"/>
+    <col min="10" max="1012" width="9" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="111" customHeight="1">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="E1" s="85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" s="17" customFormat="1" ht="4" customHeight="1">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+    </row>
+    <row r="3" spans="2:9" s="17" customFormat="1" ht="17" customHeight="1">
+      <c r="B3" s="89" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" s="90"/>
+      <c r="E3" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="101" t="s">
+        <v>540</v>
+      </c>
+      <c r="I3" s="213" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" s="17" customFormat="1" ht="12">
+      <c r="C4" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4" s="96" t="s">
+        <v>512</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>512</v>
+      </c>
+      <c r="H4" s="96" t="s">
+        <v>539</v>
+      </c>
+      <c r="I4" s="102" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="E5" s="96" t="s">
+        <v>513</v>
+      </c>
+      <c r="F5" s="102" t="s">
+        <v>514</v>
+      </c>
+      <c r="H5" s="96" t="s">
+        <v>538</v>
+      </c>
+      <c r="I5" s="216" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="E6" s="96" t="s">
+        <v>515</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="E7" s="96" t="s">
+        <v>517</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="17" customFormat="1" ht="18" customHeight="1"/>
+    <row r="9" spans="2:9" s="17" customFormat="1" ht="17" customHeight="1">
+      <c r="B9" s="89" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" s="90"/>
+      <c r="E9" s="91" t="s">
+        <v>520</v>
+      </c>
+      <c r="F9" s="213" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="17" customFormat="1" ht="12">
+      <c r="C10" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>521</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="E11" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="102" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="E12" s="96" t="s">
+        <v>522</v>
+      </c>
+      <c r="F12" s="135" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="E13" s="96" t="s">
+        <v>523</v>
+      </c>
+      <c r="F13" s="135" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="E14" s="96" t="s">
+        <v>524</v>
+      </c>
+      <c r="F14" s="135" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="E15" s="96" t="s">
+        <v>525</v>
+      </c>
+      <c r="F15" s="135" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" s="17" customFormat="1" ht="18" customHeight="1"/>
+    <row r="17" spans="1:9" s="17" customFormat="1" ht="17" customHeight="1">
+      <c r="B17" s="89" t="s">
+        <v>526</v>
+      </c>
+      <c r="C17" s="90"/>
+      <c r="E17" s="91" t="s">
+        <v>527</v>
+      </c>
+      <c r="F17" s="213" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="E18" s="96" t="s">
+        <v>528</v>
+      </c>
+      <c r="F18" s="215">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="E19" s="96" t="s">
+        <v>529</v>
+      </c>
+      <c r="F19" s="214">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="E20" s="96" t="s">
+        <v>530</v>
+      </c>
+      <c r="F20" s="214">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="E21" s="96" t="str">
+        <f>IF('[2]Deploy Parameters'!J21 = "Yes", "ESA Disk 1", "Caching Disk")</f>
+        <v>ESA Disk 1</v>
+      </c>
+      <c r="F21" s="214">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="E22" s="96" t="str">
+        <f>IF('[2]Deploy Parameters'!J21="Yes","ESA Disk 2","CapacityDisk")</f>
+        <v>ESA Disk 2</v>
+      </c>
+      <c r="F22" s="214">
+        <v>500</v>
+      </c>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="E23" s="96" t="s">
+        <v>531</v>
+      </c>
+      <c r="F23" s="102" t="s">
+        <v>532</v>
+      </c>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="E24" s="96" t="s">
+        <v>537</v>
+      </c>
+      <c r="F24" s="102" t="s">
+        <v>532</v>
+      </c>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="E25" s="96" t="s">
+        <v>543</v>
+      </c>
+      <c r="F25" s="135" t="s">
+        <v>544</v>
+      </c>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+    </row>
+    <row r="34" spans="7:9">
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+    </row>
+    <row r="35" spans="7:9">
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+    </row>
+    <row r="36" spans="7:9">
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+    </row>
+    <row r="37" spans="7:9">
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+    </row>
+    <row r="38" spans="7:9">
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+    </row>
+    <row r="39" spans="7:9">
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+    </row>
+    <row r="40" spans="7:9">
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+    </row>
+    <row r="41" spans="7:9">
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+    </row>
+    <row r="42" spans="7:9">
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+    </row>
+    <row r="43" spans="7:9">
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+    </row>
+    <row r="44" spans="7:9">
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+    </row>
+    <row r="45" spans="7:9">
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+    </row>
+    <row r="46" spans="7:9">
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+    </row>
+    <row r="47" spans="7:9">
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+    </row>
+    <row r="48" spans="7:9">
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+    </row>
+    <row r="49" spans="7:9">
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+    </row>
+    <row r="50" spans="7:9">
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="B9 B23:B278">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+      <formula>"✓"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F15">
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>LEN(TRIM(F12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F15">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="n/a">
+      <formula>NOT(ISERROR(SEARCH("n/a",F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>"✓"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10 F18:F22">
+    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
+      <formula>LEN(TRIM(F10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="18" priority="14" stopIfTrue="1">
+      <formula>LEN(TRIM(F11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F7">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+      <formula>LEN(TRIM(F4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
+      <formula>LEN(TRIM(F13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>"✓"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+      <formula>LEN(TRIM(F23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
+      <formula>LEN(TRIM(F24))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="top10" dxfId="5" priority="163" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="expression" dxfId="4" priority="164" stopIfTrue="1">
+      <formula>AND($F$25="Yes",#REF!="Yes")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>LEN(TRIM(F25))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="n/a">
+      <formula>NOT(ISERROR(SEARCH("n/a",F25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid IP Address" error="Please enter a valid IP Address" sqref="F12 F14:F15 F25" xr:uid="{A79F5E7F-BD04-0249-95DB-7CB38A82AFCF}">
+      <formula1>IF(ISNUMBER(VALUE(SUBSTITUTE(F12,".",""))),AND(--LEFT(F12,FIND(".",F12)-1)&lt;256,--MID(SUBSTITUTE(F12,".",REPT(" ",99)),99,99)&lt;256,--MID(SUBSTITUTE(F12,".",REPT(" ",99)),198,99)&lt;256,--RIGHT(SUBSTITUTE(F12,".",REPT(" ",99)),99)&lt;256),F12="n/a")</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid IP Address" error="Please enter a valid IP Address" sqref="I5" xr:uid="{FD72CECC-10AD-2141-A78A-78A50F01E807}">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -11105,7 +12209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ187"/>
   <sheetViews>
@@ -12459,27 +13563,27 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A80:B89" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <conditionalFormatting sqref="A1:A78 A80:A103 A105:A110 A112:A117 A119:A123 A126:A180 A187:A1048576">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="#">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:A108 A170:A178">
-    <cfRule type="beginsWith" dxfId="3" priority="5" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="9" priority="5" operator="beginsWith" text="#">
       <formula>LEFT(A104,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:A115">
-    <cfRule type="beginsWith" dxfId="2" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="8" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A111,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:A122">
-    <cfRule type="beginsWith" dxfId="1" priority="7" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="7" priority="7" operator="beginsWith" text="#">
       <formula>LEFT(A118,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:A129">
-    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="6" priority="1" operator="beginsWith" text="#">
       <formula>LEFT(A126,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12492,7 +13596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B157"/>
   <sheetViews>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdaneri/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D20F373-A749-B042-A65A-DA3DFC689796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15978F6-3D7D-AF44-8202-AC6D79A3489C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="106720" yWindow="2820" windowWidth="50300" windowHeight="20120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105080" yWindow="960" windowWidth="50300" windowHeight="20120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -2350,9 +2350,6 @@
     <t>Trunk</t>
   </si>
   <si>
-    <t>VLAN 10</t>
-  </si>
-  <si>
     <t>cloudbuilder</t>
   </si>
   <si>
@@ -2384,6 +2381,9 @@
   </si>
   <si>
     <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>VLAN-10</t>
   </si>
 </sst>
 </file>
@@ -11557,7 +11557,7 @@
   <dimension ref="A1:ALX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E25" activeCellId="1" sqref="F25 E25"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11597,7 +11597,7 @@
         <v>34</v>
       </c>
       <c r="H3" s="101" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I3" s="213" t="s">
         <v>34</v>
@@ -11614,10 +11614,10 @@
         <v>512</v>
       </c>
       <c r="H4" s="96" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I4" s="102" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
@@ -11628,10 +11628,10 @@
         <v>514</v>
       </c>
       <c r="H5" s="96" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I5" s="216" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
@@ -11671,7 +11671,7 @@
         <v>521</v>
       </c>
       <c r="F10" s="102" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
@@ -11679,7 +11679,7 @@
         <v>76</v>
       </c>
       <c r="F11" s="102" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
@@ -11687,7 +11687,7 @@
         <v>522</v>
       </c>
       <c r="F12" s="135" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
@@ -11695,7 +11695,7 @@
         <v>523</v>
       </c>
       <c r="F13" s="135" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
@@ -11788,7 +11788,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="E24" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F24" s="102" t="s">
         <v>532</v>
@@ -11799,10 +11799,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="E25" s="96" t="s">
+        <v>542</v>
+      </c>
+      <c r="F25" s="135" t="s">
         <v>543</v>
-      </c>
-      <c r="F25" s="135" t="s">
-        <v>544</v>
       </c>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdaneri/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15978F6-3D7D-AF44-8202-AC6D79A3489C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7366DE7-BF18-924B-BBC0-1DBB81235346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="105080" yWindow="960" windowWidth="50300" windowHeight="20120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,9 +388,6 @@
   </si>
   <si>
     <t>vSphere Distributed Switch Profile</t>
-  </si>
-  <si>
-    <t>Profile-1</t>
   </si>
   <si>
     <t>Pool Description</t>
@@ -2356,7 +2353,7 @@
     <t>cloudbuilder.vcf.lab.local</t>
   </si>
   <si>
-    <t>192.168.1.195</t>
+    <t>Profile-2</t>
   </si>
   <si>
     <t>Network Pool 2</t>
@@ -2384,6 +2381,9 @@
   </si>
   <si>
     <t>VLAN-10</t>
+  </si>
+  <si>
+    <t>192.168.10.195</t>
   </si>
 </sst>
 </file>
@@ -4141,249 +4141,7 @@
     <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
-  <dxfs count="145">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF595959"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF303030"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF595959"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF303030"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF595959"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF303030"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="136">
     <dxf>
       <font>
         <color rgb="FF595959"/>
@@ -4604,30 +4362,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFC00000"/>
       </font>
       <fill>
@@ -4712,91 +4446,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -5042,6 +4692,248 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF595959"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF303030"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF595959"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF303030"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF595959"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF303030"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B9B8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6860,14 +6752,14 @@
       <sheetName val="Credentials"/>
       <sheetName val="Hosts and Networks"/>
       <sheetName val="Deploy Parameters"/>
-      <sheetName val="Virtual Deployment"/>
       <sheetName val="Lookup_Lists"/>
       <sheetName val="Config_File_Build"/>
       <sheetName val="Change Log"/>
+      <sheetName val="Virtual Deployment"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="13">
           <cell r="E13" t="str">
@@ -6902,9 +6794,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -7223,6 +7115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AMJ572"/>
   <sheetViews>
     <sheetView zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
@@ -7292,13 +7185,13 @@
     </row>
     <row r="3" spans="2:15" s="3" customFormat="1" ht="47" customHeight="1">
       <c r="B3" s="136" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C3" s="136"/>
       <c r="D3" s="136"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -7325,7 +7218,7 @@
     </row>
     <row r="7" spans="2:15" s="9" customFormat="1" ht="14" customHeight="1">
       <c r="B7" s="140" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C7" s="141"/>
       <c r="D7" s="141"/>
@@ -7456,7 +7349,7 @@
     </row>
     <row r="26" spans="2:6" s="2" customFormat="1" ht="14" customHeight="1">
       <c r="B26" s="150" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C26" s="150"/>
       <c r="D26" s="150"/>
@@ -8062,7 +7955,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AMJ70"/>
@@ -8137,7 +8030,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>10</v>
@@ -8155,10 +8048,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="2:7" s="17" customFormat="1" ht="25" customHeight="1">
@@ -8166,15 +8059,15 @@
         <v>9</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="26" customFormat="1" ht="16" customHeight="1">
       <c r="B12" s="152" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C12" s="152"/>
       <c r="D12" s="152"/>
@@ -8185,10 +8078,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="2:7" s="17" customFormat="1" ht="25" customHeight="1">
@@ -8196,10 +8089,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="2:7" s="17" customFormat="1" ht="25" customHeight="1">
@@ -8207,10 +8100,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="28" customFormat="1" ht="16" customHeight="1">
@@ -8226,10 +8119,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="2:5" s="17" customFormat="1" ht="25" customHeight="1">
@@ -8237,10 +8130,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="2:5" s="17" customFormat="1" ht="25" customHeight="1">
@@ -8248,7 +8141,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>18</v>
@@ -8260,7 +8153,7 @@
     </row>
     <row r="21" spans="2:5" s="28" customFormat="1" ht="12">
       <c r="B21" s="125" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
@@ -8496,69 +8389,69 @@
     <mergeCell ref="B16:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="144" priority="13">
+    <cfRule type="expression" dxfId="135" priority="13">
       <formula>LEN(C8)&gt;40</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="14">
+    <cfRule type="expression" dxfId="134" priority="14">
       <formula>LEN(C8)&lt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="142" priority="1">
+    <cfRule type="expression" dxfId="133" priority="1">
       <formula>LEN($C$10)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="expression" dxfId="141" priority="9">
+    <cfRule type="expression" dxfId="132" priority="9">
       <formula>AND(LEN(C10)&gt;0,LEN(C10)&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="140" priority="2">
+    <cfRule type="expression" dxfId="131" priority="2">
       <formula>LEN($C$11)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="139" priority="3">
+    <cfRule type="expression" dxfId="130" priority="3">
       <formula>LEN($C$13)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="138" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="10" stopIfTrue="1">
       <formula>AND(LEN(C13)&gt;0,LEN(C13)&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="137" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="4" stopIfTrue="1">
       <formula>LEN($C$14)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="136" priority="5">
+    <cfRule type="expression" dxfId="127" priority="5">
       <formula>LEN($C$15)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="15" stopIfTrue="1">
       <formula>AND(LEN(C15)&gt;0,LEN(C15)&lt;12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="134" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="6" stopIfTrue="1">
       <formula>LEN($C$17)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="12" stopIfTrue="1">
       <formula>AND(LEN(C17)&gt;0,LEN(C17)&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="132" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="7" stopIfTrue="1">
       <formula>LEN($C$18)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="17" stopIfTrue="1">
       <formula>AND(LEN(C18)&gt;0,LEN(C18)&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="130" priority="18">
+    <cfRule type="expression" dxfId="121" priority="18">
       <formula>LEN(C19)&lt;12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8588,12 +8481,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AMJ157"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B141" sqref="B141"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15"/>
@@ -8712,7 +8606,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>24</v>
@@ -8725,16 +8619,16 @@
       </c>
       <c r="H6" s="48"/>
       <c r="I6" s="49" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J6" s="50" t="s">
+        <v>478</v>
+      </c>
+      <c r="K6" s="50" t="s">
         <v>479</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="L6" s="51" t="s">
         <v>480</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>481</v>
       </c>
       <c r="M6" s="37"/>
       <c r="N6" s="37"/>
@@ -8757,35 +8651,35 @@
     <row r="7" spans="1:29" s="44" customFormat="1" ht="16" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="52" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C7" s="121">
         <v>10</v>
       </c>
       <c r="D7" s="121" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G7" s="59">
         <v>9000</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="J7" s="53" t="s">
         <v>484</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="K7" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="L7" s="57" t="s">
         <v>486</v>
-      </c>
-      <c r="L7" s="57" t="s">
-        <v>487</v>
       </c>
       <c r="M7" s="37"/>
       <c r="N7" s="37"/>
@@ -8811,16 +8705,16 @@
         <v>27</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D8" s="127" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G8" s="54">
         <v>9000</v>
@@ -8830,13 +8724,13 @@
         <v>29</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K8" s="60" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="61" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M8" s="37"/>
       <c r="N8" s="37"/>
@@ -8862,16 +8756,16 @@
         <v>28</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D9" s="121" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G9" s="59">
         <v>9000</v>
@@ -8881,13 +8775,13 @@
         <v>32</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K9" s="63" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="58" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
@@ -8913,16 +8807,16 @@
         <v>31</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D10" s="121" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G10" s="59">
         <v>9000</v>
@@ -9009,12 +8903,12 @@
     </row>
     <row r="13" spans="1:29">
       <c r="B13" s="162" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C13" s="162"/>
       <c r="D13" s="162"/>
       <c r="E13" s="163" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F13" s="163"/>
       <c r="G13" s="35"/>
@@ -9049,7 +8943,7 @@
       </c>
       <c r="K14" s="167"/>
       <c r="L14" s="168" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M14" s="169"/>
     </row>
@@ -9075,12 +8969,12 @@
     </row>
     <row r="16" spans="1:29" ht="16" customHeight="1">
       <c r="B16" s="173" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C16" s="174"/>
       <c r="D16" s="175"/>
       <c r="E16" s="171" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F16" s="172"/>
       <c r="G16" s="35"/>
@@ -9115,7 +9009,7 @@
     </row>
     <row r="18" spans="2:13" ht="16" customHeight="1">
       <c r="B18" s="162" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C18" s="162"/>
       <c r="D18" s="162"/>
@@ -9136,7 +9030,7 @@
     </row>
     <row r="19" spans="2:13" ht="16" customHeight="1">
       <c r="B19" s="173" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C19" s="174"/>
       <c r="D19" s="175"/>
@@ -9196,23 +9090,25 @@
       <c r="C23" s="74"/>
       <c r="D23" s="74"/>
       <c r="E23" s="184" t="s">
-        <v>55</v>
+        <v>534</v>
       </c>
       <c r="F23" s="184"/>
     </row>
     <row r="24" spans="2:13" s="35" customFormat="1" ht="12">
       <c r="B24" s="178" t="str">
         <f>IF(E23="Profile-1",Lookup_Lists!C2,IF(E23="Profile-2",IF(OR(E16="Overlay/VLAN",E16="Overlay"),Lookup_Lists!C3,Lookup_Lists!C4),IF(E23="Profile-3",Lookup_Lists!C5,)))</f>
-        <v>vSphere Distributed Switch = One (1)          /          Physical NICs = Two (2) or  Four (4)
+        <v>vSphere Distributed Switch = Two (2)          /          Physical NICs = Four (4)
 Primary vDS - sfo-m01-cluster-001-vds-001
-     -  Traffic for Management, vMotion, vSAN, Host Overlay - e.g. vmnic0,vmnic1</v>
+     - Traffic for Management,  vMotion, Host Overlay - e.g. vmnic0,vmnic1
+Secondary vDS - n/a
+     - Traffic for vSAN - e.g. vmnic2,vmnic3</v>
       </c>
       <c r="C24" s="178"/>
       <c r="D24" s="178"/>
       <c r="E24" s="178"/>
       <c r="F24" s="178"/>
       <c r="I24" s="183" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J24" s="183"/>
       <c r="K24" s="73" t="s">
@@ -9226,10 +9122,10 @@
       <c r="E25" s="178"/>
       <c r="F25" s="178"/>
       <c r="I25" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="170" t="s">
         <v>56</v>
-      </c>
-      <c r="J25" s="170" t="s">
-        <v>57</v>
       </c>
       <c r="K25" s="170"/>
     </row>
@@ -9240,10 +9136,10 @@
       <c r="E26" s="178"/>
       <c r="F26" s="178"/>
       <c r="I26" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="170" t="s">
         <v>58</v>
-      </c>
-      <c r="J26" s="170" t="s">
-        <v>59</v>
       </c>
       <c r="K26" s="170"/>
     </row>
@@ -9257,13 +9153,13 @@
         <v>24</v>
       </c>
       <c r="J27" s="77" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K27" s="78" t="s">
         <v>25</v>
       </c>
       <c r="L27" s="79" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="2:13" s="35" customFormat="1" ht="13" thickBot="1">
@@ -9273,16 +9169,16 @@
       <c r="E28" s="178"/>
       <c r="F28" s="178"/>
       <c r="I28" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="J28" s="81" t="s">
+        <v>501</v>
+      </c>
+      <c r="K28" s="82" t="s">
         <v>363</v>
       </c>
-      <c r="J28" s="81" t="s">
+      <c r="L28" s="83" t="s">
         <v>502</v>
-      </c>
-      <c r="K28" s="82" t="s">
-        <v>364</v>
-      </c>
-      <c r="L28" s="83" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="29" spans="2:13" s="35" customFormat="1" ht="12">
@@ -9308,7 +9204,7 @@
     </row>
     <row r="32" spans="2:13" s="35" customFormat="1" ht="12">
       <c r="B32" s="126" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="9:10" s="35" customFormat="1" ht="12">
@@ -9519,208 +9415,208 @@
     <mergeCell ref="E12:F12"/>
   </mergeCells>
   <conditionalFormatting sqref="B17:F21">
-    <cfRule type="expression" dxfId="129" priority="113">
+    <cfRule type="expression" dxfId="120" priority="113">
       <formula>$E$23="Profile-1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:D8">
-    <cfRule type="expression" dxfId="128" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="16" stopIfTrue="1">
       <formula>IF($E$23="Profile-3",AND(OR($B$16="Overlay/VLAN",$B$16="Overlay")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E10">
-    <cfRule type="notContainsText" dxfId="127" priority="51" operator="notContains" text="/">
+    <cfRule type="notContainsText" dxfId="118" priority="51" operator="notContains" text="/">
       <formula>ISERROR(SEARCH("/",E8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="126" priority="23">
+    <cfRule type="expression" dxfId="117" priority="23">
       <formula>IF($E$22="Profile-1",AND($E$15="VLAN"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="24">
+    <cfRule type="expression" dxfId="116" priority="24">
       <formula>IF($E$22&lt;&gt;"Profile-1",AND($E$18="VLAN",$E$15="VLAN"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="25">
+    <cfRule type="expression" dxfId="115" priority="25">
       <formula>IF($E$22="Profile-1",AND($E$15="n/a"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="26">
+    <cfRule type="expression" dxfId="114" priority="26">
       <formula>IF(AND(OR($E$15="Overlay/VLAN",$E$15="Overlay")),(OR($E$18="Overlay/VLAN",$E$18="Overlay")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="27">
+    <cfRule type="expression" dxfId="113" priority="27">
       <formula>IF($E$22="Profile-3",AND(OR($E$15="Overlay/VLAN",$E$15="Overlay")))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="121" priority="28">
+    <cfRule type="containsBlanks" dxfId="112" priority="28">
       <formula>LEN(TRIM(E16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="120" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="33" stopIfTrue="1">
       <formula>IF(AND(OR($E$16="Overlay/VLAN",$E$16="Overlay")),(OR($E$19="Overlay/VLAN",$E$19="Overlay")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F9">
-    <cfRule type="expression" dxfId="119" priority="13">
+    <cfRule type="expression" dxfId="110" priority="13">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F15">
-    <cfRule type="expression" dxfId="118" priority="6">
+    <cfRule type="expression" dxfId="109" priority="6">
       <formula>LEN(TRIM(E13))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="90" stopIfTrue="1">
       <formula>AND(E13&lt;&gt;"n/a",IF(E13=E18, TRUE, FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="expression" dxfId="116" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="146" stopIfTrue="1">
       <formula>LEN(TRIM(E18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:F19">
-    <cfRule type="expression" dxfId="115" priority="29">
+    <cfRule type="expression" dxfId="106" priority="29">
       <formula>IF($E$23&lt;&gt;"Profile-1",AND($E$19="VLAN",$E$16="VLAN"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="32">
+    <cfRule type="expression" dxfId="105" priority="32">
       <formula>IF($E$23&lt;&gt;"Profile-1",AND($E$19="VLAN",$E$16="VLAN"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="35" stopIfTrue="1">
       <formula>IF($E$23="Profile-3",AND($E$18="n/a"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="36">
+    <cfRule type="expression" dxfId="103" priority="36">
       <formula>IF($E$23="Profile-2",AND($E$19="n/a"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="37">
+    <cfRule type="expression" dxfId="102" priority="37">
       <formula>IF($E$23="Profile-1",AND($E$19&lt;&gt;"n/a"))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="110" priority="152" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="101" priority="152" stopIfTrue="1">
       <formula>LEN(TRIM(E19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
-    <cfRule type="expression" dxfId="109" priority="95">
+    <cfRule type="expression" dxfId="100" priority="95">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F23">
-    <cfRule type="expression" dxfId="108" priority="102">
+    <cfRule type="expression" dxfId="99" priority="102">
       <formula>IF($E$23="Profile-3",AND($E$18="n/a"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="103">
+    <cfRule type="expression" dxfId="98" priority="103">
       <formula>IF($E$23="Profile-2",AND($E$18="n/a"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="104">
+    <cfRule type="expression" dxfId="97" priority="104">
       <formula>IF($E$23="Profile-1",AND($E$18&lt;&gt;"n/a"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:G8">
-    <cfRule type="containsText" dxfId="105" priority="14" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="96" priority="14" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="104" priority="98">
+    <cfRule type="expression" dxfId="95" priority="98">
       <formula>#REF!="TRUE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F10">
-    <cfRule type="containsText" dxfId="103" priority="20" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="94" priority="20" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="21">
+    <cfRule type="expression" dxfId="93" priority="21">
       <formula>IF(LEN(F7)-LEN(SUBSTITUTE(F7,".",""))=3,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G10">
-    <cfRule type="expression" dxfId="101" priority="19">
+    <cfRule type="expression" dxfId="92" priority="19">
       <formula>LEN(TRIM(F7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G10">
-    <cfRule type="cellIs" dxfId="100" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="22" operator="lessThan">
       <formula>1500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="99" priority="88">
+    <cfRule type="expression" dxfId="90" priority="88">
       <formula>IF(ISNUMBER(FIND(".",G22)),IF((FIND(".",G22)-1)&gt;15,0,0),IF((LEN(G22))&gt;15,0,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I7">
-    <cfRule type="expression" dxfId="98" priority="2">
+    <cfRule type="expression" dxfId="89" priority="2">
       <formula>AND($I$6="n/a",$I$7="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="97" priority="9">
+    <cfRule type="expression" dxfId="88" priority="9">
       <formula>AND(I7&lt;&gt;"n/a",COUNTIF($I$7:$L$7,I7)&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="65" stopIfTrue="1">
       <formula>AND(I6="n/a",IF(LEN(I7)-LEN(SUBSTITUTE(I7,".",""))=3,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:K26 I27:L28">
-    <cfRule type="expression" dxfId="95" priority="107">
+    <cfRule type="expression" dxfId="86" priority="107">
       <formula>$K$24="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:L6">
-    <cfRule type="expression" dxfId="94" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="10" stopIfTrue="1">
       <formula>IF(I6&lt;&gt;"n/a",COUNTIF($I$6:$P$6,I6)&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="60">
+    <cfRule type="expression" dxfId="84" priority="60">
       <formula>AND(I7="n/a",I6="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:M18">
-    <cfRule type="expression" dxfId="92" priority="87">
+    <cfRule type="expression" dxfId="83" priority="87">
       <formula>$K$12="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J7">
-    <cfRule type="expression" dxfId="91" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="3" stopIfTrue="1">
       <formula>AND($J$6="n/a",$J$7="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="90" priority="64">
+    <cfRule type="expression" dxfId="81" priority="64">
       <formula>AND(J7&lt;&gt;"n/a",COUNTIF(I7:P7,J7)&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="67">
+    <cfRule type="expression" dxfId="80" priority="67">
       <formula>AND(J6="n/a",J7&lt;&gt;"n/a",IF(LEN(J7)-LEN(SUBSTITUTE(J7,".",""))=3,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9 L8:L9 J14:M18">
-    <cfRule type="expression" dxfId="88" priority="57">
+    <cfRule type="expression" dxfId="79" priority="57">
       <formula>LEN(TRIM(J8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9">
-    <cfRule type="containsText" dxfId="87" priority="75" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="78" priority="75" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7">
-    <cfRule type="expression" dxfId="86" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="4" stopIfTrue="1">
       <formula>AND($K$6="n/a",$K$7="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="85" priority="7">
+    <cfRule type="expression" dxfId="76" priority="7">
       <formula>AND(K7&lt;&gt;"n/a",COUNTIF($I$7:$L$7,K7)&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="expression" dxfId="84" priority="69">
+    <cfRule type="expression" dxfId="75" priority="69">
       <formula>AND(K6="n/a",IF(LEN(K7)-LEN(SUBSTITUTE(K7,".",""))=3,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L7">
-    <cfRule type="expression" dxfId="83" priority="5">
+    <cfRule type="expression" dxfId="74" priority="5">
       <formula>AND($L$6="n/a",$L$7="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L9">
-    <cfRule type="containsText" dxfId="82" priority="79" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",L8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9774,15 +9670,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AMJ79"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B141" sqref="B141"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -9814,7 +9710,7 @@
     </row>
     <row r="3" spans="2:11" ht="60" customHeight="1">
       <c r="B3" s="206" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="206"/>
       <c r="D3" s="206"/>
@@ -9834,11 +9730,11 @@
     </row>
     <row r="5" spans="2:11" s="17" customFormat="1" ht="17" customHeight="1">
       <c r="B5" s="89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="90"/>
       <c r="E5" s="91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="192" t="s">
         <v>34</v>
@@ -9846,7 +9742,7 @@
       <c r="G5" s="192"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="207" t="s">
         <v>34</v>
@@ -9859,21 +9755,21 @@
         <v>✓</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="96" t="s">
-        <v>64</v>
-      </c>
       <c r="F6" s="204" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G6" s="204"/>
       <c r="H6" s="97"/>
       <c r="I6" s="96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" s="186" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K6" s="186"/>
     </row>
@@ -9883,10 +9779,10 @@
         <v>✓</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="96" t="s">
         <v>66</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>67</v>
       </c>
       <c r="F7" s="204" t="s">
         <v>48</v>
@@ -9896,15 +9792,15 @@
     </row>
     <row r="8" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E8" s="96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="204" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G8" s="204"/>
       <c r="H8" s="88"/>
       <c r="I8" s="205" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J8" s="205"/>
       <c r="K8" s="98" t="s">
@@ -9913,7 +9809,7 @@
     </row>
     <row r="9" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E9" s="96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="204" t="s">
         <v>48</v>
@@ -9921,7 +9817,7 @@
       <c r="G9" s="204"/>
       <c r="H9" s="88"/>
       <c r="I9" s="205" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="205"/>
       <c r="K9" s="98" t="s">
@@ -9933,11 +9829,11 @@
     </row>
     <row r="11" spans="2:11" s="17" customFormat="1" ht="17" customHeight="1">
       <c r="B11" s="89" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="99"/>
       <c r="E11" s="118" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F11" s="187" t="s">
         <v>53</v>
@@ -9957,13 +9853,13 @@
         <v>✓</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="96" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="208" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G12" s="208"/>
       <c r="H12" s="88"/>
@@ -9973,10 +9869,10 @@
     </row>
     <row r="13" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E13" s="96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="208" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G13" s="208"/>
       <c r="H13" s="88"/>
@@ -9989,7 +9885,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="208" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G14" s="208"/>
       <c r="H14" s="88"/>
@@ -9999,10 +9895,10 @@
     </row>
     <row r="15" spans="2:11" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E15" s="96" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F15" s="208" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G15" s="208"/>
       <c r="H15" s="88"/>
@@ -10015,30 +9911,30 @@
         <v>11</v>
       </c>
       <c r="F17" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="92" t="s">
         <v>76</v>
-      </c>
-      <c r="G17" s="92" t="s">
-        <v>77</v>
       </c>
       <c r="H17" s="88"/>
     </row>
     <row r="18" spans="2:26" s="17" customFormat="1" ht="17" customHeight="1">
       <c r="B18" s="89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="99"/>
       <c r="E18" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G18" s="103" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H18" s="97"/>
       <c r="I18" s="101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J18" s="192" t="s">
         <v>34</v>
@@ -10051,24 +9947,24 @@
         <v>✓</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="102" t="s">
         <v>81</v>
-      </c>
-      <c r="F19" s="102" t="s">
-        <v>82</v>
       </c>
       <c r="H19" s="119"/>
       <c r="I19" s="96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J19" s="193" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K19" s="193"/>
       <c r="M19" s="120" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="2:26" s="17" customFormat="1" ht="12">
@@ -10077,24 +9973,24 @@
         <v>✓</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="91" t="s">
+      <c r="F20" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>86</v>
       </c>
       <c r="H20" s="88"/>
       <c r="I20" s="96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" s="185" t="s">
         <v>37</v>
       </c>
       <c r="K20" s="185"/>
       <c r="M20" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="2:26" s="17" customFormat="1" ht="12">
@@ -10103,11 +9999,11 @@
         <v>✓</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H21" s="88"/>
       <c r="I21" s="96" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J21" s="185" t="s">
         <v>37</v>
@@ -10121,10 +10017,10 @@
         <v>✓</v>
       </c>
       <c r="C22" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="96" t="s">
         <v>88</v>
-      </c>
-      <c r="E22" s="96" t="s">
-        <v>89</v>
       </c>
       <c r="F22" s="192" t="s">
         <v>34</v>
@@ -10132,10 +10028,10 @@
       <c r="G22" s="192"/>
       <c r="H22" s="88"/>
       <c r="I22" s="96" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J22" s="186" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K22" s="186"/>
     </row>
@@ -10145,13 +10041,13 @@
         <v>✓</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="96" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F23" s="193" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G23" s="193"/>
       <c r="H23" s="88"/>
@@ -10168,13 +10064,13 @@
         <v>✓</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="96" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F24" s="193" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G24" s="193"/>
       <c r="H24" s="88"/>
@@ -10199,7 +10095,7 @@
     </row>
     <row r="25" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E25" s="96" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F25" s="187" t="s">
         <v>37</v>
@@ -10227,15 +10123,15 @@
     </row>
     <row r="26" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E26" s="96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="194" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G26" s="194"/>
       <c r="H26" s="88"/>
       <c r="I26" s="101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J26" s="187" t="s">
         <v>53</v>
@@ -10260,7 +10156,7 @@
     <row r="27" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="H27" s="88"/>
       <c r="I27" s="96" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J27" s="189" t="s">
         <v>48</v>
@@ -10284,15 +10180,15 @@
     </row>
     <row r="28" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E28" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="186" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G28" s="186"/>
       <c r="H28" s="88"/>
       <c r="I28" s="96" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J28" s="189" t="s">
         <v>48</v>
@@ -10316,7 +10212,7 @@
     </row>
     <row r="29" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E29" s="96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="192" t="s">
         <v>34</v>
@@ -10324,7 +10220,7 @@
       <c r="G29" s="192"/>
       <c r="H29" s="88"/>
       <c r="I29" s="96" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J29" s="189" t="s">
         <v>48</v>
@@ -10348,15 +10244,15 @@
     </row>
     <row r="30" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E30" s="96" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F30" s="193" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G30" s="193"/>
       <c r="H30" s="88"/>
       <c r="I30" s="96" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J30" s="189" t="s">
         <v>48</v>
@@ -10380,18 +10276,18 @@
     </row>
     <row r="31" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E31" s="96" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F31" s="193" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G31" s="193"/>
       <c r="H31" s="88"/>
       <c r="I31" s="96" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J31" s="187" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K31" s="188"/>
       <c r="L31" s="88"/>
@@ -10412,15 +10308,15 @@
     </row>
     <row r="32" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E32" s="96" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F32" s="193" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G32" s="193"/>
       <c r="H32" s="88"/>
       <c r="I32" s="201" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J32" s="195" t="s">
         <v>48</v>
@@ -10513,17 +10409,17 @@
     </row>
     <row r="37" spans="2:21" s="17" customFormat="1" ht="16" customHeight="1">
       <c r="B37" s="89" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C37" s="99"/>
       <c r="E37" s="132" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F37" s="133" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="133" t="s">
         <v>76</v>
-      </c>
-      <c r="G37" s="133" t="s">
-        <v>77</v>
       </c>
       <c r="H37" s="106" t="e">
         <f>MID(G40,FIND(".",G40,FIND(".",G40,FIND(".",G40)+1)+1)+1,LEN(G40)-FIND(".",G40,FIND(".",G40,FIND(".",G40)+1)+1))-(MID(G39,FIND(".",G39,FIND(".",G39,FIND(".",G39)+1)+1)+1,LEN(G39)-FIND(".",G39,FIND(".",G39,FIND(".",G39)+1)+1))-1)&lt;3</f>
@@ -10546,16 +10442,16 @@
         <v>✓</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E38" s="96" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F38" s="102" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G38" s="103" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H38" s="106"/>
       <c r="L38" s="88"/>
@@ -10571,13 +10467,13 @@
     </row>
     <row r="39" spans="2:21" s="17" customFormat="1" ht="17" customHeight="1">
       <c r="E39" s="96" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F39" s="102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G39" s="103" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H39" s="106"/>
       <c r="L39" s="88"/>
@@ -10593,7 +10489,7 @@
     </row>
     <row r="40" spans="2:21" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E40" s="96" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F40" s="102" t="s">
         <v>48</v>
@@ -10615,7 +10511,7 @@
     </row>
     <row r="41" spans="2:21" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E41" s="96" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F41" s="102" t="s">
         <v>48</v>
@@ -10637,10 +10533,10 @@
     </row>
     <row r="42" spans="2:21" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E42" s="91" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F42" s="102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42" s="106"/>
       <c r="L42" s="88"/>
@@ -10694,10 +10590,10 @@
       <c r="C45" s="99"/>
       <c r="D45" s="85"/>
       <c r="E45" s="96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" s="210" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G45" s="210"/>
       <c r="H45" s="85"/>
@@ -10718,13 +10614,13 @@
         <v>✓</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E46" s="96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F46" s="211" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G46" s="211"/>
       <c r="L46" s="88"/>
@@ -10740,10 +10636,10 @@
     </row>
     <row r="47" spans="2:21" ht="14" customHeight="1">
       <c r="E47" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" s="210" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G47" s="210"/>
       <c r="L47" s="88"/>
@@ -10771,10 +10667,10 @@
     </row>
     <row r="49" spans="5:21" ht="14" customHeight="1">
       <c r="E49" s="91" t="s">
+        <v>433</v>
+      </c>
+      <c r="F49" s="193" t="s">
         <v>434</v>
-      </c>
-      <c r="F49" s="193" t="s">
-        <v>435</v>
       </c>
       <c r="G49" s="193"/>
       <c r="L49" s="88"/>
@@ -11201,266 +11097,225 @@
     <mergeCell ref="I23:K25"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B7 B18:B24 B37:B38 B45:B46 B50:B306">
-    <cfRule type="cellIs" dxfId="81" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="55" operator="equal">
       <formula>"✓"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="80" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="111" operator="equal">
       <formula>"✓"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="79" priority="107">
+    <cfRule type="expression" dxfId="46" priority="107">
       <formula>#REF!="Standard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:G15">
-    <cfRule type="expression" dxfId="78" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="32" stopIfTrue="1">
       <formula>$F$11="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:G32">
-    <cfRule type="expression" dxfId="77" priority="106">
+    <cfRule type="expression" dxfId="44" priority="106">
       <formula>$F$28="Standard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="76" priority="73" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="43" priority="73" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="expression" dxfId="75" priority="60">
+    <cfRule type="expression" dxfId="42" priority="60">
       <formula>IF(LEN(F6)-LEN(SUBSTITUTE(F6,".",""))=3,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F9">
-    <cfRule type="expression" dxfId="74" priority="58">
+    <cfRule type="expression" dxfId="41" priority="58">
       <formula>LEN(TRIM(F6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="73" priority="59" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="40" priority="59" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="72" priority="71" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="39" priority="71" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F15">
-    <cfRule type="expression" dxfId="71" priority="108">
+    <cfRule type="expression" dxfId="38" priority="108">
       <formula>IF(#REF!="",0,1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="70" priority="133" stopIfTrue="1"/>
-    <cfRule type="expression" dxfId="69" priority="134">
+    <cfRule type="duplicateValues" dxfId="37" priority="133" stopIfTrue="1"/>
+    <cfRule type="expression" dxfId="36" priority="134">
       <formula>LEN(TRIM(F12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="68" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="6" stopIfTrue="1">
       <formula>$F$18="n/a"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="57" stopIfTrue="1">
       <formula>LEN(TRIM(F18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F24">
-    <cfRule type="expression" dxfId="66" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="62" stopIfTrue="1">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="expression" dxfId="65" priority="5">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>$F$38="n/a"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="18" stopIfTrue="1">
       <formula>AND($F$38&lt;&gt;"n/a",IF($F$38&lt;&gt;"n/a",COUNTIF($F$38:$F$41,$F$38)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="expression" dxfId="63" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>$F$39="n/a"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="19" stopIfTrue="1">
       <formula>AND($F$39&lt;&gt;"n/a",IF($F$39&lt;&gt;"n/a",COUNTIF($F$38:$F$41,$F$39)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="expression" dxfId="61" priority="3">
-      <formula>$F$40="n/a"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="20" stopIfTrue="1">
-      <formula>AND($F$40&lt;&gt;"n/a",IF($F$40&lt;&gt;"n/a",COUNTIF($F$38:$F$41,$F$40)&gt;1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="expression" dxfId="59" priority="2">
-      <formula>$F$41="n/a"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="23">
-      <formula>AND($F$41&lt;&gt;"n/a",IF($F$41&lt;&gt;"n/a",COUNTIF($F$38:$F$41,$F$41)&gt;1))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>$F$45="n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:G18">
-    <cfRule type="expression" dxfId="56" priority="24">
+    <cfRule type="expression" dxfId="27" priority="24">
       <formula>AND($F$18="n/a",$G$18="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:G30">
-    <cfRule type="expression" dxfId="55" priority="80">
+    <cfRule type="expression" dxfId="26" priority="80">
       <formula>LEN(TRIM(F30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:G38">
-    <cfRule type="expression" dxfId="54" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="10" stopIfTrue="1">
       <formula>AND($F$38="n/a",$G$38="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:G41">
-    <cfRule type="expression" dxfId="53" priority="64">
-      <formula>LEN(TRIM(F38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F39:G39">
-    <cfRule type="expression" dxfId="52" priority="11">
+    <cfRule type="expression" dxfId="24" priority="11">
       <formula>AND($F$39="n/a",$G$39="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40:G40">
-    <cfRule type="expression" dxfId="51" priority="12">
-      <formula>AND($F$40="n/a",$G$40="n/a")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41:G41">
-    <cfRule type="expression" dxfId="50" priority="13" stopIfTrue="1">
-      <formula>AND($F$41="n/a",$G$41="n/a")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F45:G46">
-    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="9" stopIfTrue="1">
       <formula>AND($F$45="n/a",$F$46="n/a")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:G46">
-    <cfRule type="expression" dxfId="48" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="83" stopIfTrue="1">
       <formula>AND($F$46&lt;&gt;"n/a",IF(LEN(F46)-LEN(SUBSTITUTE(F46,".",""))=3,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="85" stopIfTrue="1">
       <formula>LEN(TRIM(F46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:G49">
-    <cfRule type="expression" dxfId="46" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>LEN(TRIM(F49))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="68" stopIfTrue="1" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="19" priority="68" stopIfTrue="1" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="44" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="86" stopIfTrue="1">
       <formula>AND($G$18&lt;&gt;"n/a",IF(LEN(G18)-LEN(SUBSTITUTE(G18,".",""))=3,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="expression" dxfId="43" priority="14">
+    <cfRule type="expression" dxfId="17" priority="14">
       <formula>AND($G$38&lt;&gt;"n/a",IF($G$38&lt;&gt;"n/a",COUNTIF($G$38:$G$41,$G$38)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="42" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>AND($G$39&lt;&gt;"n/a",IF($G$39&lt;&gt;"n/a",COUNTIF($G$38:$G$41,$G$39)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="expression" dxfId="41" priority="16">
-      <formula>AND($G$40&lt;&gt;"n/a",IF($G$40&lt;&gt;"n/a",COUNTIF($G$38:$G$41,$G$40)&gt;1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="expression" dxfId="40" priority="17">
-      <formula>AND($G$41&lt;&gt;"n/a",IF($G$41&lt;&gt;"n/a",COUNTIF($G$38:$G$41,$G$41)&gt;1))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="39" priority="42">
+    <cfRule type="expression" dxfId="15" priority="42">
       <formula>LEN(TRIM(J22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="expression" dxfId="38" priority="31">
+    <cfRule type="expression" dxfId="14" priority="31">
       <formula>AND($J$27="n/a",OR($J$28&lt;&gt;"n/a",$J$29&lt;&gt;"n/a",$J$30&lt;&gt;"n/a"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="37" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="33" stopIfTrue="1">
       <formula>AND($J$28="n/a",OR($J$27&lt;&gt;"n/a",$J$29&lt;&gt;"n/a",$J$30&lt;&gt;"n/a"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="36" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="35" stopIfTrue="1">
       <formula>AND(OR($J$29="n/a",$J$29=""),$J$30&lt;&gt;"n/a",$J$30&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="11" priority="34">
       <formula>AND($J$29&lt;&gt;"n/a",$J$29&lt;&gt;"",OR($J$30="n/a",$J$30=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="34" priority="27">
+    <cfRule type="expression" dxfId="10" priority="27">
       <formula>$J$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:K6">
-    <cfRule type="containsText" dxfId="33" priority="76" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="9" priority="76" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",J6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="77">
+    <cfRule type="expression" dxfId="8" priority="77">
       <formula>LEN(TRIM(J6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:K19">
-    <cfRule type="top10" dxfId="31" priority="78" rank="10"/>
+    <cfRule type="top10" dxfId="7" priority="78" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:K20">
-    <cfRule type="expression" dxfId="30" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="160" stopIfTrue="1">
       <formula>AND($F$25="Yes",$J$21="Yes")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:K22">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="5" priority="29">
       <formula>$F$25="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="28" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="40" stopIfTrue="1">
       <formula>$J$21="No"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="41" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="3" priority="41" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",J22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K28">
-    <cfRule type="expression" dxfId="26" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="37" stopIfTrue="1">
       <formula>AND($J$27="n/a",$J$28="n/a",$J$26="Yes")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K31">
-    <cfRule type="expression" dxfId="25" priority="53">
+    <cfRule type="expression" dxfId="1" priority="53">
       <formula>$J$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:K34">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
       <formula>$J$31="HTTP"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11554,10 +11409,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80883A0D-8449-414F-B4E6-B4F1B6AE4BAE}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:ALX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11587,17 +11443,17 @@
     </row>
     <row r="3" spans="2:9" s="17" customFormat="1" ht="17" customHeight="1">
       <c r="B3" s="89" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C3" s="90"/>
       <c r="E3" s="91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="213" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="101" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I3" s="213" t="s">
         <v>34</v>
@@ -11605,59 +11461,59 @@
     </row>
     <row r="4" spans="2:9" s="17" customFormat="1" ht="12">
       <c r="C4" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="E4" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="E4" s="96" t="s">
-        <v>512</v>
-      </c>
       <c r="F4" s="102" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H4" s="96" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I4" s="102" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E5" s="96" t="s">
+        <v>512</v>
+      </c>
+      <c r="F5" s="102" t="s">
         <v>513</v>
       </c>
-      <c r="F5" s="102" t="s">
-        <v>514</v>
-      </c>
       <c r="H5" s="96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I5" s="216" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E6" s="96" t="s">
+        <v>514</v>
+      </c>
+      <c r="F6" s="102" t="s">
         <v>515</v>
-      </c>
-      <c r="F6" s="102" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="7" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E7" s="96" t="s">
+        <v>516</v>
+      </c>
+      <c r="F7" s="102" t="s">
         <v>517</v>
-      </c>
-      <c r="F7" s="102" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="8" spans="2:9" s="17" customFormat="1" ht="18" customHeight="1"/>
     <row r="9" spans="2:9" s="17" customFormat="1" ht="17" customHeight="1">
       <c r="B9" s="89" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C9" s="90"/>
       <c r="E9" s="91" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F9" s="213" t="s">
         <v>34</v>
@@ -11665,63 +11521,63 @@
     </row>
     <row r="10" spans="2:9" s="17" customFormat="1" ht="12">
       <c r="C10" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E10" s="96" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F10" s="102" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E11" s="96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="102" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E12" s="96" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F12" s="135" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E13" s="96" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F13" s="135" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E14" s="96" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F14" s="135" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E15" s="96" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F15" s="135" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="2:9" s="17" customFormat="1" ht="18" customHeight="1"/>
     <row r="17" spans="1:9" s="17" customFormat="1" ht="17" customHeight="1">
       <c r="B17" s="89" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C17" s="90"/>
       <c r="E17" s="91" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F17" s="213" t="s">
         <v>34</v>
@@ -11729,7 +11585,7 @@
     </row>
     <row r="18" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E18" s="96" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F18" s="215">
         <v>12</v>
@@ -11737,7 +11593,7 @@
     </row>
     <row r="19" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E19" s="96" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F19" s="214">
         <v>78</v>
@@ -11745,7 +11601,7 @@
     </row>
     <row r="20" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="E20" s="96" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F20" s="214">
         <v>32</v>
@@ -11777,10 +11633,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="E23" s="96" t="s">
+        <v>530</v>
+      </c>
+      <c r="F23" s="102" t="s">
         <v>531</v>
-      </c>
-      <c r="F23" s="102" t="s">
-        <v>532</v>
       </c>
       <c r="G23" s="88"/>
       <c r="H23" s="88"/>
@@ -11788,10 +11644,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="E24" s="96" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G24" s="88"/>
       <c r="H24" s="88"/>
@@ -11799,10 +11655,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="E25" s="96" t="s">
+        <v>541</v>
+      </c>
+      <c r="F25" s="135" t="s">
         <v>542</v>
-      </c>
-      <c r="F25" s="135" t="s">
-        <v>543</v>
       </c>
       <c r="G25" s="88"/>
       <c r="H25" s="88"/>
@@ -11936,75 +11792,75 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B9 B23:B278">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="17" operator="equal">
       <formula>"✓"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F15">
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="71" priority="18">
       <formula>LEN(TRIM(F12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F15">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="70" priority="19" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="16" operator="equal">
       <formula>"✓"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10 F18:F22">
-    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="18" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="14" stopIfTrue="1">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F7">
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="12" stopIfTrue="1">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
       <formula>"✓"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="10" stopIfTrue="1">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="9" stopIfTrue="1">
       <formula>LEN(TRIM(F24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="top10" dxfId="5" priority="163" rank="10"/>
+    <cfRule type="top10" dxfId="54" priority="163" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="4" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="164" stopIfTrue="1">
       <formula>AND($F$25="Yes",#REF!="Yes")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>LEN(TRIM(F25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="n/a">
+    <cfRule type="containsText" dxfId="49" priority="2" operator="containsText" text="n/a">
       <formula>NOT(ISERROR(SEARCH("n/a",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12026,6 +11882,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
@@ -12040,10 +11897,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="107" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" s="107" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="64">
@@ -12061,7 +11918,7 @@
     </row>
     <row r="3" spans="1:3" ht="112">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="108" t="str">
         <f>"vSphere Distributed Switch = Two (2)          /          Physical NICs = Four (4)
@@ -12078,15 +11935,15 @@
     </row>
     <row r="4" spans="1:3" ht="112">
       <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="108" t="s">
         <v>103</v>
-      </c>
-      <c r="C4" s="108" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="112">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="108" t="str">
         <f>"vSphere Distributed Switch = Two (2)          /          Physical NICs = Four (4)
@@ -12103,103 +11960,103 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="108"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -12211,6 +12068,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AMJ187"/>
   <sheetViews>
     <sheetView topLeftCell="A151" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -12226,7 +12084,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12235,7 +12093,7 @@
         <v>workflow-type=VCF</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -12244,7 +12102,7 @@
         <v>CeipEnabled=false</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -12253,7 +12111,7 @@
         <v>FipsEnabled=false</v>
       </c>
       <c r="B4" s="109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -12262,7 +12120,7 @@
         <v>workflowVersion.vcf-ems=5.2.0</v>
       </c>
       <c r="B5" s="109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -12271,17 +12129,17 @@
         <v>DeployWithoutLicenseKeys=true</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="109" customFormat="1">
       <c r="A8" s="109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="109" customFormat="1">
       <c r="A9" s="109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -12290,7 +12148,7 @@
         <v>ntp-server@address=192.168.0.1</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -12299,12 +12157,12 @@
         <v>remote-site-ntp-server@address=</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -12313,7 +12171,7 @@
         <v>root-dns-records@zoneName=vcf.lab.local</v>
       </c>
       <c r="B13" s="109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -12322,7 +12180,7 @@
         <v>managementNetwork.primaryDns=192.168.0.250</v>
       </c>
       <c r="B14" s="109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -12331,7 +12189,7 @@
         <v>local-dns-records@zoneName=vcf.lab.local</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -12340,7 +12198,7 @@
         <v>managementNetwork.secondaryDns=</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -12348,7 +12206,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="109" customFormat="1">
@@ -12357,7 +12215,7 @@
         <v>sddc-manager-root-credentials=Pata2Pata1Pata!</v>
       </c>
       <c r="B19" s="109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -12366,7 +12224,7 @@
         <v>sddc-manager-superuser-credentials=Pata2Pata1Pata!</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -12375,7 +12233,7 @@
         <v>sddc-manager-localUser-credentials=Pata2Pata1Pata!</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -12384,7 +12242,7 @@
         <v>sddcManagerIp.Address=192.168.10.203</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -12393,7 +12251,7 @@
         <v>sddcManager-deployment-vmname=sfo-vcf01</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -12402,7 +12260,7 @@
         <v>sddcManager-HostPoolName=networkpool-001</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -12413,7 +12271,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -12422,7 +12280,7 @@
         <v>mgmt-vcenter-6-license@key=V50P1-LD116-K8XN1-LH88M-C1929</v>
       </c>
       <c r="B28" s="109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -12431,7 +12289,7 @@
         <v>vcenter-root-credentials@password=Pata2Pata1Pata!</v>
       </c>
       <c r="B29" s="109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -12440,7 +12298,7 @@
         <v>vcenterManagementIp.address=192.168.10.202</v>
       </c>
       <c r="B30" s="109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -12449,7 +12307,7 @@
         <v>vcenter-mgmt-deployment-vmname=sfo-m01-vc01</v>
       </c>
       <c r="B31" s="109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -12458,7 +12316,7 @@
         <v>vcenter-mgmt-deployment@deploymentModel=small</v>
       </c>
       <c r="B32" s="109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -12469,7 +12327,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -12478,7 +12336,7 @@
         <v>vcenter-admin-credentials@password=Pata2Pata1Pata!</v>
       </c>
       <c r="B35" s="109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -12486,7 +12344,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -12495,7 +12353,7 @@
         <v>vsan-license@key=CM4YL-JD046-K8TN0-LC18K-0J327</v>
       </c>
       <c r="B38" s="109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -12504,7 +12362,7 @@
         <v>management-vsan-datastore-name@value=sfo-m01-cluster-001-vsan</v>
       </c>
       <c r="B39" s="109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -12513,7 +12371,7 @@
         <v>enableVsanDeduplication=false</v>
       </c>
       <c r="B40" s="109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -12522,7 +12380,7 @@
         <v>enable-vsan-esa=true</v>
       </c>
       <c r="B41" s="109" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -12531,7 +12389,7 @@
         <v>hcl-file-path=/home/admin/nested-esxi-vsan-esa-hcl.json</v>
       </c>
       <c r="B42" s="109" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -12540,7 +12398,7 @@
         <v>proxy-host=</v>
       </c>
       <c r="B43" s="109" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -12549,7 +12407,7 @@
         <v>proxy-port=</v>
       </c>
       <c r="B44" s="109" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -12558,7 +12416,7 @@
         <v>proxy-username=</v>
       </c>
       <c r="B45" s="109" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -12567,7 +12425,7 @@
         <v>proxy-password=</v>
       </c>
       <c r="B46" s="109" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -12576,7 +12434,7 @@
         <v>proxy-transfer-protocol=</v>
       </c>
       <c r="B47" s="109" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -12585,17 +12443,17 @@
         <v>proxy-certificate=</v>
       </c>
       <c r="B48" s="109" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="109" customFormat="1">
       <c r="A50" s="109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="109" customFormat="1">
       <c r="A51" s="109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -12606,7 +12464,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -12615,12 +12473,12 @@
         <v>vcloud-suite-license@key=ZJ6LV-ZD2DM-P8RN0-LH1K4-2EV39</v>
       </c>
       <c r="B54" s="109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="109" customFormat="1">
@@ -12629,7 +12487,7 @@
         <v>esxi.username=root</v>
       </c>
       <c r="B56" s="109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="109" customFormat="1">
@@ -12638,12 +12496,12 @@
         <v>esxi.password=Pata2Pata1Pata!</v>
       </c>
       <c r="B57" s="109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="109" customFormat="1">
       <c r="A58" s="109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="109" customFormat="1">
@@ -12652,7 +12510,7 @@
         <v>esxi.mgmt-1.address=192.168.10.100</v>
       </c>
       <c r="B59" s="109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -12661,7 +12519,7 @@
         <v>esxi.mgmt-1.hostname=vcf42-esx01</v>
       </c>
       <c r="B60" s="109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -12670,7 +12528,7 @@
         <v>esxi.mgmt-2.address=192.168.10.101</v>
       </c>
       <c r="B61" s="109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -12679,7 +12537,7 @@
         <v>esxi.mgmt-2.hostname=vcf42-esx02</v>
       </c>
       <c r="B62" s="109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -12688,7 +12546,7 @@
         <v>esxi.mgmt-3.address=192.168.10.102</v>
       </c>
       <c r="B63" s="109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -12697,7 +12555,7 @@
         <v>esxi.mgmt-3.hostname=vcf42-esx03</v>
       </c>
       <c r="B64" s="109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -12706,7 +12564,7 @@
         <v>esxi.mgmt-4.address=192.168.10.103</v>
       </c>
       <c r="B65" s="109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -12715,12 +12573,12 @@
         <v>esxi.mgmt-4.hostname=vcf42-esx04</v>
       </c>
       <c r="B66" s="109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -12729,12 +12587,12 @@
         <v>skipThumbprintValidation=true</v>
       </c>
       <c r="B68" s="109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -12763,7 +12621,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -12792,7 +12650,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -12801,7 +12659,7 @@
         <v>mgmt-datacenter-name=sfo-m01-datacenter</v>
       </c>
       <c r="B81" s="109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -12810,7 +12668,7 @@
         <v>management-cluster-name=sfo-m01-cluster-001</v>
       </c>
       <c r="B82" s="109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -12819,7 +12677,7 @@
         <v>evc-mode-management-cluster@value=amd-zen</v>
       </c>
       <c r="B83" s="109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -12828,12 +12686,12 @@
         <v>cluster_image_enabled=true</v>
       </c>
       <c r="B84" s="109" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -12848,7 +12706,7 @@
         <v>vsphere-resource-pools[1]=</v>
       </c>
       <c r="B87" s="109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -12857,7 +12715,7 @@
         <v>vsphere-resource-pools[2]=</v>
       </c>
       <c r="B88" s="109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -12866,7 +12724,7 @@
         <v>vsphere-resource-pools[3]=</v>
       </c>
       <c r="B89" s="109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -12874,7 +12732,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="109" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -12883,7 +12741,7 @@
         <v>vds-primary-switchName=sfo-m01-cluster-001-vds-001</v>
       </c>
       <c r="B92" s="109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -12892,7 +12750,7 @@
         <v>vds-primary-vmnics=vmnic0,vmnic1</v>
       </c>
       <c r="B93" s="109" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -12901,7 +12759,7 @@
         <v>vds-primary-mtu=9000</v>
       </c>
       <c r="B94" s="109" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -12922,7 +12780,7 @@
         <v>vds-secondary-switchName=</v>
       </c>
       <c r="B97" s="109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -12931,7 +12789,7 @@
         <v>vds-secondary-vmnics=</v>
       </c>
       <c r="B98" s="109" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -12940,7 +12798,7 @@
         <v>vds-secondary-mtu=</v>
       </c>
       <c r="B99" s="109" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -12958,7 +12816,7 @@
     <row r="102" spans="1:2">
       <c r="A102" s="110" t="str">
         <f>"vds-profile="&amp;'Hosts and Networks'!E23</f>
-        <v>vds-profile=Profile-1</v>
+        <v>vds-profile=Profile-2</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -12966,7 +12824,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -12975,7 +12833,7 @@
         <v>managementNetwork.cidrNotation=192.168.10.0/24</v>
       </c>
       <c r="B105" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -12984,7 +12842,7 @@
         <v>managementNetwork.gateway=192.168.10.254</v>
       </c>
       <c r="B106" s="109" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -12993,7 +12851,7 @@
         <v>vlan-mgmt-management.vlanId=10</v>
       </c>
       <c r="B107" s="109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -13002,7 +12860,7 @@
         <v>vlan-mgmt-management-mtu@mtu=9000</v>
       </c>
       <c r="B108" s="109" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -13011,12 +12869,12 @@
         <v>vds-management-initial-configuration@dvPortGroups[1].name=SDDC-DPortGroup-Mgmt</v>
       </c>
       <c r="B109" s="109" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="109" customFormat="1">
       <c r="A111" s="109" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -13025,7 +12883,7 @@
         <v>mgmtVsanNetwork.cidrNotation=192.168.12.0/24</v>
       </c>
       <c r="B112" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -13034,7 +12892,7 @@
         <v>mgmtVsanNetwork.gateway=192.168.12.254</v>
       </c>
       <c r="B113" s="109" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -13043,7 +12901,7 @@
         <v>vlan-management-vsan.vlanId=12</v>
       </c>
       <c r="B114" s="109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -13052,7 +12910,7 @@
         <v>vlan-management-vsan-mtu@mtu=9000</v>
       </c>
       <c r="B115" s="109" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -13061,12 +12919,12 @@
         <v>vds-management-initial-configuration@dvPortGroups[2].name=SDDC-DPortGroup-VSAN</v>
       </c>
       <c r="B116" s="109" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="109" customFormat="1">
       <c r="A118" s="109" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -13075,7 +12933,7 @@
         <v>mgmtVmotionNetwork.cidrNotation=192.168.11.0/24</v>
       </c>
       <c r="B119" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -13084,7 +12942,7 @@
         <v>mgmtVmotionNetwork.gateway=192.168.11.254</v>
       </c>
       <c r="B120" s="109" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -13093,7 +12951,7 @@
         <v>vlan-management-vmotion.vlanId=11</v>
       </c>
       <c r="B121" s="109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -13102,7 +12960,7 @@
         <v>vlan-management-vmotion-mtu@mtu=9000</v>
       </c>
       <c r="B122" s="109" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -13111,7 +12969,7 @@
         <v>vds-management-initial-configuration@dvPortGroups[3].name=SDDC-DPortGroup-vMotion</v>
       </c>
       <c r="B123" s="109" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -13119,7 +12977,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="122" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B125" s="123"/>
     </row>
@@ -13129,7 +12987,7 @@
         <v>vmManagementNetwork.cidrNotation=192.168.10.0/24</v>
       </c>
       <c r="B126" s="123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -13138,7 +12996,7 @@
         <v>vmManagementNetwork.gateway=192.168.10.254</v>
       </c>
       <c r="B127" s="123" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -13147,7 +13005,7 @@
         <v>vlan-mgmt-vm-management.vlanId=10</v>
       </c>
       <c r="B128" s="123" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -13156,7 +13014,7 @@
         <v>vlan-mgmt-vm-management-mtu@mtu=9000</v>
       </c>
       <c r="B129" s="123" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -13165,12 +13023,12 @@
         <v>vds-management-initial-configuration@dvPortGroups[4].name=SDDC-DPortGroup-VM-Mgmt</v>
       </c>
       <c r="B130" s="123" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132" spans="1:2" s="109" customFormat="1">
       <c r="A132" s="109" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -13179,7 +13037,7 @@
         <v>inclusion-range-start-vmotion01=192.168.11.10</v>
       </c>
       <c r="B133" s="109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -13188,7 +13046,7 @@
         <v>inclusion-range-end-vmotion01=192.168.11.100</v>
       </c>
       <c r="B134" s="109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -13197,7 +13055,7 @@
         <v>inclusion-range-start-vsan01=192.168.12.10</v>
       </c>
       <c r="B135" s="109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -13206,12 +13064,12 @@
         <v>inclusion-range-end-vsan01=192.168.12.100</v>
       </c>
       <c r="B136" s="109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="109" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -13220,7 +13078,7 @@
         <v>mgmt-vm-folder-name@value=sfo-m01-fd-mgmt</v>
       </c>
       <c r="B139" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -13229,7 +13087,7 @@
         <v>nsx-vm-folder-name@value=sfo-m01-fd-nsx</v>
       </c>
       <c r="B140" s="109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -13238,7 +13096,7 @@
         <v>edge-vm-folder-name@value=sfo-m01-fd-edge</v>
       </c>
       <c r="B141" s="109" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -13246,12 +13104,12 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="109" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="109" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -13260,12 +13118,12 @@
         <v>nsxt-license@key=A02XX-JD30Q-28TN9-L3906-C17M2</v>
       </c>
       <c r="B145" s="109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="109" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -13274,12 +13132,12 @@
         <v>nsxt-va-deployment-size=small</v>
       </c>
       <c r="B147" s="109" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="148" spans="1:2" s="109" customFormat="1">
       <c r="A148" s="109" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -13288,7 +13146,7 @@
         <v>nsxt-root-credentials@password=Pata2Pata1Pata!</v>
       </c>
       <c r="B149" s="109" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -13297,7 +13155,7 @@
         <v>nsxt-admin-credentials@password=Pata2Pata1Pata!</v>
       </c>
       <c r="B150" s="109" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -13306,28 +13164,28 @@
         <v>nsxt-cli-privilege-credentials@password=Pata2Pata1Pata!</v>
       </c>
       <c r="B151" s="109" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="B152" s="109" t="s">
         <v>200</v>
-      </c>
-      <c r="B152" s="109" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="B153" s="109" t="s">
         <v>202</v>
-      </c>
-      <c r="B153" s="109" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -13336,7 +13194,7 @@
         <v>nsxt-vip-hostname=sfo-m01-nsx01</v>
       </c>
       <c r="B155" s="109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -13345,7 +13203,7 @@
         <v>nsxt-vip-address=192.168.10.211</v>
       </c>
       <c r="B156" s="109" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -13354,7 +13212,7 @@
         <v>nsxt-node1-hostname=sfo-m01-nsx01a</v>
       </c>
       <c r="B157" s="109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -13363,7 +13221,7 @@
         <v>nsxt-node1-address=192.168.10.212</v>
       </c>
       <c r="B158" s="109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -13372,7 +13230,7 @@
         <v>nsxt-node2-hostname=</v>
       </c>
       <c r="B159" s="109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -13381,7 +13239,7 @@
         <v>nsxt-node2-address=</v>
       </c>
       <c r="B160" s="109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -13390,7 +13248,7 @@
         <v>nsxt-node3-hostname=</v>
       </c>
       <c r="B161" s="109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -13399,12 +13257,12 @@
         <v>nsxt-node3-address=</v>
       </c>
       <c r="B162" s="109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="109" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -13413,7 +13271,7 @@
         <v>nsxt-transport-vlan-zoneName-1=sfo-m01-tz-vlan01</v>
       </c>
       <c r="B164" s="109" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -13424,10 +13282,10 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="B166" s="109" t="s">
         <v>210</v>
-      </c>
-      <c r="B166" s="109" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -13436,7 +13294,7 @@
         <v>nsxt-transport-vlanid=13</v>
       </c>
       <c r="B167" s="109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -13445,20 +13303,20 @@
         <v>nsxt-transport-overlay-zoneName=sfo-m01-tz-overlay01</v>
       </c>
       <c r="B168" s="109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="109" t="s">
+        <v>213</v>
+      </c>
+      <c r="B169" s="109" t="s">
         <v>214</v>
-      </c>
-      <c r="B169" s="109" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -13473,7 +13331,7 @@
         <v>nsxt-hostStaticIpPool-name=sfo01-m01-cl01-tep01</v>
       </c>
       <c r="B173" s="109" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -13482,7 +13340,7 @@
         <v>nsxt-hostStaticIpPool-description=ESXi Host Overlay TEP IP Pool</v>
       </c>
       <c r="B174" s="109" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -13491,7 +13349,7 @@
         <v>nsxt-hostStaticIpPool-ipStart=192.168.13.1</v>
       </c>
       <c r="B175" s="109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -13500,7 +13358,7 @@
         <v>nsxt-hostStaticIpPool-ipEnd=192.168.13.8</v>
       </c>
       <c r="B176" s="109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -13509,7 +13367,7 @@
         <v>nsxt-hostStaticIpPool-ipCidr=192.168.13.0/24</v>
       </c>
       <c r="B177" s="109" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -13518,37 +13376,37 @@
         <v>nsxt-hostStaticIpPool-ipGateway=192.168.13.254</v>
       </c>
       <c r="B178" s="109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="109" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="114" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="114" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="114" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -13556,34 +13414,34 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A80:B89" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <conditionalFormatting sqref="A1:A78 A80:A103 A105:A110 A112:A117 A119:A123 A126:A180 A187:A1048576">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="#">
+    <cfRule type="containsText" dxfId="59" priority="4" operator="containsText" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:A108 A170:A178">
-    <cfRule type="beginsWith" dxfId="9" priority="5" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="58" priority="5" operator="beginsWith" text="#">
       <formula>LEFT(A104,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:A115">
-    <cfRule type="beginsWith" dxfId="8" priority="6" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="57" priority="6" operator="beginsWith" text="#">
       <formula>LEFT(A111,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:A122">
-    <cfRule type="beginsWith" dxfId="7" priority="7" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="56" priority="7" operator="beginsWith" text="#">
       <formula>LEFT(A118,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:A129">
-    <cfRule type="beginsWith" dxfId="6" priority="1" operator="beginsWith" text="#">
+    <cfRule type="beginsWith" dxfId="55" priority="1" operator="beginsWith" text="#">
       <formula>LEFT(A126,LEN("#"))="#"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13598,6 +13456,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -13614,7 +13473,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16">
       <c r="A1" s="115" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="108" t="s">
         <v>7</v>
@@ -13625,7 +13484,7 @@
         <v>43236</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="176">
@@ -13633,7 +13492,7 @@
         <v>43207</v>
       </c>
       <c r="B3" s="108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32">
@@ -13641,7 +13500,7 @@
         <v>43252</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="96">
@@ -13649,7 +13508,7 @@
         <v>43255</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32">
@@ -13657,7 +13516,7 @@
         <v>43258</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="80">
@@ -13665,7 +13524,7 @@
         <v>43260</v>
       </c>
       <c r="B7" s="108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="80">
@@ -13673,7 +13532,7 @@
         <v>43271</v>
       </c>
       <c r="B8" s="108" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="48">
@@ -13681,7 +13540,7 @@
         <v>43273</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16">
@@ -13689,7 +13548,7 @@
         <v>43273</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="224">
@@ -13697,7 +13556,7 @@
         <v>43280</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="48">
@@ -13705,7 +13564,7 @@
         <v>43284</v>
       </c>
       <c r="B12" s="108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="32">
@@ -13713,7 +13572,7 @@
         <v>43300</v>
       </c>
       <c r="B13" s="108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16">
@@ -13721,7 +13580,7 @@
         <v>43301</v>
       </c>
       <c r="B14" s="108" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="48">
@@ -13729,7 +13588,7 @@
         <v>43304</v>
       </c>
       <c r="B15" s="108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="64">
@@ -13737,7 +13596,7 @@
         <v>43305</v>
       </c>
       <c r="B16" s="108" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="48">
@@ -13745,7 +13604,7 @@
         <v>43311</v>
       </c>
       <c r="B17" s="108" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="48">
@@ -13753,7 +13612,7 @@
         <v>43320</v>
       </c>
       <c r="B18" s="108" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16">
@@ -13761,7 +13620,7 @@
         <v>43321</v>
       </c>
       <c r="B19" s="108" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="32">
@@ -13769,7 +13628,7 @@
         <v>43322</v>
       </c>
       <c r="B20" s="108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16">
@@ -13777,7 +13636,7 @@
         <v>43354</v>
       </c>
       <c r="B21" s="108" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="32">
@@ -13785,7 +13644,7 @@
         <v>43363</v>
       </c>
       <c r="B22" s="108" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16">
@@ -13793,7 +13652,7 @@
         <v>43364</v>
       </c>
       <c r="B23" s="108" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="48">
@@ -13801,7 +13660,7 @@
         <v>43370</v>
       </c>
       <c r="B24" s="108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16">
@@ -13809,7 +13668,7 @@
         <v>43371</v>
       </c>
       <c r="B25" s="108" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="48">
@@ -13817,7 +13676,7 @@
         <v>43377</v>
       </c>
       <c r="B26" s="108" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="64">
@@ -13825,7 +13684,7 @@
         <v>43382</v>
       </c>
       <c r="B27" s="108" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16">
@@ -13833,7 +13692,7 @@
         <v>43383</v>
       </c>
       <c r="B28" s="108" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16">
@@ -13841,7 +13700,7 @@
         <v>43389</v>
       </c>
       <c r="B29" s="108" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16">
@@ -13849,7 +13708,7 @@
         <v>43397</v>
       </c>
       <c r="B30" s="108" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16">
@@ -13857,7 +13716,7 @@
         <v>43402</v>
       </c>
       <c r="B31" s="108" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="32">
@@ -13865,7 +13724,7 @@
         <v>43404</v>
       </c>
       <c r="B32" s="108" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="96">
@@ -13873,7 +13732,7 @@
         <v>43405</v>
       </c>
       <c r="B33" s="108" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16">
@@ -13881,7 +13740,7 @@
         <v>43406</v>
       </c>
       <c r="B34" s="108" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16">
@@ -13889,7 +13748,7 @@
         <v>43409</v>
       </c>
       <c r="B35" s="108" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16">
@@ -13897,7 +13756,7 @@
         <v>43413</v>
       </c>
       <c r="B36" s="108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="64">
@@ -13905,7 +13764,7 @@
         <v>43416</v>
       </c>
       <c r="B37" s="108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16">
@@ -13913,7 +13772,7 @@
         <v>43417</v>
       </c>
       <c r="B38" s="108" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16">
@@ -13921,7 +13780,7 @@
         <v>43430</v>
       </c>
       <c r="B39" s="108" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16">
@@ -13929,7 +13788,7 @@
         <v>43385</v>
       </c>
       <c r="B40" s="108" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16">
@@ -13937,7 +13796,7 @@
         <v>43446</v>
       </c>
       <c r="B41" s="108" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16">
@@ -13945,7 +13804,7 @@
         <v>43447</v>
       </c>
       <c r="B42" s="108" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="32">
@@ -13953,7 +13812,7 @@
         <v>43448</v>
       </c>
       <c r="B43" s="108" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16">
@@ -13961,7 +13820,7 @@
         <v>43467</v>
       </c>
       <c r="B44" s="108" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="48">
@@ -13969,7 +13828,7 @@
         <v>43472</v>
       </c>
       <c r="B45" s="108" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16">
@@ -13977,7 +13836,7 @@
         <v>43480</v>
       </c>
       <c r="B46" s="108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16">
@@ -13985,7 +13844,7 @@
         <v>43481</v>
       </c>
       <c r="B47" s="108" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16">
@@ -13993,7 +13852,7 @@
         <v>43483</v>
       </c>
       <c r="B48" s="108" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="32">
@@ -14001,7 +13860,7 @@
         <v>43496</v>
       </c>
       <c r="B49" s="108" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16">
@@ -14009,7 +13868,7 @@
         <v>43502</v>
       </c>
       <c r="B50" s="108" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16">
@@ -14017,7 +13876,7 @@
         <v>43503</v>
       </c>
       <c r="B51" s="108" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16">
@@ -14025,7 +13884,7 @@
         <v>43517</v>
       </c>
       <c r="B52" s="108" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16">
@@ -14033,7 +13892,7 @@
         <v>43523</v>
       </c>
       <c r="B53" s="108" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16">
@@ -14041,7 +13900,7 @@
         <v>43532</v>
       </c>
       <c r="B54" s="108" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="32">
@@ -14049,7 +13908,7 @@
         <v>43557</v>
       </c>
       <c r="B55" s="108" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16">
@@ -14057,7 +13916,7 @@
         <v>43564</v>
       </c>
       <c r="B56" s="108" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16">
@@ -14065,7 +13924,7 @@
         <v>43579</v>
       </c>
       <c r="B57" s="108" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16">
@@ -14073,7 +13932,7 @@
         <v>43613</v>
       </c>
       <c r="B58" s="108" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16">
@@ -14081,7 +13940,7 @@
         <v>43614</v>
       </c>
       <c r="B59" s="108" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16">
@@ -14089,7 +13948,7 @@
         <v>43621</v>
       </c>
       <c r="B60" s="108" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="32">
@@ -14097,7 +13956,7 @@
         <v>43622</v>
       </c>
       <c r="B61" s="108" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16">
@@ -14105,7 +13964,7 @@
         <v>43634</v>
       </c>
       <c r="B62" s="108" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="32">
@@ -14113,7 +13972,7 @@
         <v>43640</v>
       </c>
       <c r="B63" s="108" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16">
@@ -14121,7 +13980,7 @@
         <v>43664</v>
       </c>
       <c r="B64" s="108" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="16">
@@ -14129,7 +13988,7 @@
         <v>43684</v>
       </c>
       <c r="B65" s="108" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16">
@@ -14137,7 +13996,7 @@
         <v>43719</v>
       </c>
       <c r="B66" s="108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16">
@@ -14145,7 +14004,7 @@
         <v>43738</v>
       </c>
       <c r="B67" s="108" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16">
@@ -14153,7 +14012,7 @@
         <v>43747</v>
       </c>
       <c r="B68" s="108" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" customHeight="1">
@@ -14161,7 +14020,7 @@
         <v>43756</v>
       </c>
       <c r="B69" s="108" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1">
@@ -14169,7 +14028,7 @@
         <v>43762</v>
       </c>
       <c r="B70" s="108" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" customHeight="1">
@@ -14177,7 +14036,7 @@
         <v>43762</v>
       </c>
       <c r="B71" s="108" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1">
@@ -14185,7 +14044,7 @@
         <v>43777</v>
       </c>
       <c r="B72" s="108" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" customHeight="1">
@@ -14193,7 +14052,7 @@
         <v>43781</v>
       </c>
       <c r="B73" s="108" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" customHeight="1">
@@ -14201,7 +14060,7 @@
         <v>43783</v>
       </c>
       <c r="B74" s="108" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="80">
@@ -14209,7 +14068,7 @@
         <v>43811</v>
       </c>
       <c r="B75" s="108" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="224">
@@ -14217,7 +14076,7 @@
         <v>43832</v>
       </c>
       <c r="B76" s="108" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="64">
@@ -14225,7 +14084,7 @@
         <v>43864</v>
       </c>
       <c r="B77" s="108" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="32">
@@ -14233,7 +14092,7 @@
         <v>43838</v>
       </c>
       <c r="B78" s="108" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="32">
@@ -14241,7 +14100,7 @@
         <v>43843</v>
       </c>
       <c r="B79" s="108" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16">
@@ -14249,7 +14108,7 @@
         <v>43845</v>
       </c>
       <c r="B80" s="108" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16">
@@ -14257,7 +14116,7 @@
         <v>43857</v>
       </c>
       <c r="B81" s="108" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16">
@@ -14265,7 +14124,7 @@
         <v>43878</v>
       </c>
       <c r="B82" s="108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="48">
@@ -14273,7 +14132,7 @@
         <v>43882</v>
       </c>
       <c r="B83" s="108" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="32">
@@ -14281,7 +14140,7 @@
         <v>43887</v>
       </c>
       <c r="B84" s="108" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16">
@@ -14289,7 +14148,7 @@
         <v>43893</v>
       </c>
       <c r="B85" s="108" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16">
@@ -14297,7 +14156,7 @@
         <v>43894</v>
       </c>
       <c r="B86" s="108" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16">
@@ -14305,7 +14164,7 @@
         <v>43895</v>
       </c>
       <c r="B87" s="108" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16">
@@ -14313,7 +14172,7 @@
         <v>43896</v>
       </c>
       <c r="B88" s="108" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="32">
@@ -14321,7 +14180,7 @@
         <v>43900</v>
       </c>
       <c r="B89" s="108" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16">
@@ -14329,7 +14188,7 @@
         <v>43903</v>
       </c>
       <c r="B90" s="108" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16">
@@ -14337,7 +14196,7 @@
         <v>43907</v>
       </c>
       <c r="B91" s="108" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16">
@@ -14345,7 +14204,7 @@
         <v>43915</v>
       </c>
       <c r="B92" s="108" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="32">
@@ -14353,7 +14212,7 @@
         <v>43916</v>
       </c>
       <c r="B93" s="108" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="48">
@@ -14361,7 +14220,7 @@
         <v>43929</v>
       </c>
       <c r="B94" s="108" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16">
@@ -14369,7 +14228,7 @@
         <v>43935</v>
       </c>
       <c r="B95" s="108" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="64">
@@ -14377,7 +14236,7 @@
         <v>43942</v>
       </c>
       <c r="B96" s="108" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="32">
@@ -14385,7 +14244,7 @@
         <v>43955</v>
       </c>
       <c r="B97" s="108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16">
@@ -14393,7 +14252,7 @@
         <v>43956</v>
       </c>
       <c r="B98" s="108" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16">
@@ -14401,7 +14260,7 @@
         <v>43957</v>
       </c>
       <c r="B99" s="108" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="16">
@@ -14409,7 +14268,7 @@
         <v>43958</v>
       </c>
       <c r="B100" s="108" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="16">
@@ -14417,7 +14276,7 @@
         <v>43965</v>
       </c>
       <c r="B101" s="108" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="16">
@@ -14425,7 +14284,7 @@
         <v>43984</v>
       </c>
       <c r="B102" s="108" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="16">
@@ -14433,7 +14292,7 @@
         <v>43986</v>
       </c>
       <c r="B103" s="108" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16">
@@ -14441,7 +14300,7 @@
         <v>43987</v>
       </c>
       <c r="B104" s="108" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="16">
@@ -14449,7 +14308,7 @@
         <v>44001</v>
       </c>
       <c r="B105" s="108" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="32">
@@ -14457,7 +14316,7 @@
         <v>44021</v>
       </c>
       <c r="B106" s="108" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="16">
@@ -14465,7 +14324,7 @@
         <v>44039</v>
       </c>
       <c r="B107" s="108" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="32">
@@ -14473,7 +14332,7 @@
         <v>44054</v>
       </c>
       <c r="B108" s="108" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="16">
@@ -14481,7 +14340,7 @@
         <v>44055</v>
       </c>
       <c r="B109" s="108" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="16">
@@ -14489,7 +14348,7 @@
         <v>44061</v>
       </c>
       <c r="B110" s="108" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="64">
@@ -14497,7 +14356,7 @@
         <v>44092</v>
       </c>
       <c r="B111" s="108" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16">
@@ -14505,7 +14364,7 @@
         <v>44096</v>
       </c>
       <c r="B112" s="108" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="32">
@@ -14513,7 +14372,7 @@
         <v>44102</v>
       </c>
       <c r="B113" s="108" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="16">
@@ -14521,7 +14380,7 @@
         <v>44104</v>
       </c>
       <c r="B114" s="108" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="16">
@@ -14529,7 +14388,7 @@
         <v>44105</v>
       </c>
       <c r="B115" s="108" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="32">
@@ -14537,7 +14396,7 @@
         <v>44116</v>
       </c>
       <c r="B116" s="108" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="112">
@@ -14545,7 +14404,7 @@
         <v>44130</v>
       </c>
       <c r="B117" s="108" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16">
@@ -14553,7 +14412,7 @@
         <v>44140</v>
       </c>
       <c r="B118" s="108" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="32">
@@ -14561,7 +14420,7 @@
         <v>44147</v>
       </c>
       <c r="B119" s="108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="16">
@@ -14569,7 +14428,7 @@
         <v>44155</v>
       </c>
       <c r="B120" s="108" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="48">
@@ -14577,7 +14436,7 @@
         <v>44166</v>
       </c>
       <c r="B121" s="108" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="32">
@@ -14585,7 +14444,7 @@
         <v>44215</v>
       </c>
       <c r="B122" s="108" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="16">
@@ -14593,7 +14452,7 @@
         <v>44246</v>
       </c>
       <c r="B123" s="108" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="48">
@@ -14601,7 +14460,7 @@
         <v>44271</v>
       </c>
       <c r="B124" s="108" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="16">
@@ -14609,7 +14468,7 @@
         <v>44342</v>
       </c>
       <c r="B125" s="108" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="16">
@@ -14617,7 +14476,7 @@
         <v>44473</v>
       </c>
       <c r="B126" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="16" customHeight="1">
@@ -14625,7 +14484,7 @@
         <v>44615</v>
       </c>
       <c r="B127" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="16" customHeight="1">
@@ -14633,7 +14492,7 @@
         <v>44740</v>
       </c>
       <c r="B128" s="108" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="16" customHeight="1">
@@ -14641,7 +14500,7 @@
         <v>44753</v>
       </c>
       <c r="B129" s="108" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="16" customHeight="1">
@@ -14649,7 +14508,7 @@
         <v>44846</v>
       </c>
       <c r="B130" s="108" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="16" customHeight="1">
@@ -14657,7 +14516,7 @@
         <v>44873</v>
       </c>
       <c r="B131" s="108" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16" customHeight="1">
@@ -14665,7 +14524,7 @@
         <v>44887</v>
       </c>
       <c r="B132" s="108" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="16" customHeight="1">
@@ -14673,7 +14532,7 @@
         <v>44896</v>
       </c>
       <c r="B133" s="108" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="16" customHeight="1">
@@ -14681,7 +14540,7 @@
         <v>44951</v>
       </c>
       <c r="B134" s="108" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="16">
@@ -14689,7 +14548,7 @@
         <v>44960</v>
       </c>
       <c r="B135" s="108" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="16">
@@ -14697,7 +14556,7 @@
         <v>44965</v>
       </c>
       <c r="B136" s="108" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="16">
@@ -14705,7 +14564,7 @@
         <v>44977</v>
       </c>
       <c r="B137" s="108" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="16">
@@ -14713,7 +14572,7 @@
         <v>44978</v>
       </c>
       <c r="B138" s="108" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="16">
@@ -14721,7 +14580,7 @@
         <v>45013</v>
       </c>
       <c r="B139" s="108" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="16">
@@ -14729,7 +14588,7 @@
         <v>45023</v>
       </c>
       <c r="B140" s="108" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="16">
@@ -14737,7 +14596,7 @@
         <v>45041</v>
       </c>
       <c r="B141" s="108" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="16">
@@ -14745,7 +14604,7 @@
         <v>45042</v>
       </c>
       <c r="B142" s="108" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="16">
@@ -14753,7 +14612,7 @@
         <v>45093</v>
       </c>
       <c r="B143" s="108" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="16">
@@ -14761,7 +14620,7 @@
         <v>45097</v>
       </c>
       <c r="B144" s="108" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="16">
@@ -14769,7 +14628,7 @@
         <v>45162</v>
       </c>
       <c r="B145" s="108" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="16">
@@ -14777,7 +14636,7 @@
         <v>45183</v>
       </c>
       <c r="B146" s="108" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="16">
@@ -14785,7 +14644,7 @@
         <v>45194</v>
       </c>
       <c r="B147" s="108" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="16">
@@ -14793,7 +14652,7 @@
         <v>45246</v>
       </c>
       <c r="B148" s="108" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="16">
@@ -14801,7 +14660,7 @@
         <v>45302</v>
       </c>
       <c r="B149" s="108" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="16">
@@ -14809,7 +14668,7 @@
         <v>45314</v>
       </c>
       <c r="B150" s="108" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="16">
@@ -14817,7 +14676,7 @@
         <v>45330</v>
       </c>
       <c r="B151" s="108" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="16">
@@ -14825,7 +14684,7 @@
         <v>45341</v>
       </c>
       <c r="B152" s="108" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="16">
@@ -14833,7 +14692,7 @@
         <v>45356</v>
       </c>
       <c r="B153" s="108" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="16">
@@ -14841,7 +14700,7 @@
         <v>45373</v>
       </c>
       <c r="B154" s="108" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="16">
@@ -14849,7 +14708,7 @@
         <v>45407</v>
       </c>
       <c r="B155" s="108" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="16">
@@ -14857,12 +14716,12 @@
         <v>45429</v>
       </c>
       <c r="B156" s="108" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="116" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B157" s="117"/>
     </row>
